--- a/Dataset_V0.xlsx
+++ b/Dataset_V0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arun\WIP\Hackathon\2018\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA38F24-F8FE-499A-9C12-34462F85BD8C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6815517-CB9B-46C0-BCFB-6F79D58C26F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="8805" activeTab="1" xr2:uid="{009DCA6C-5860-4690-BF15-14568388A6A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="8805" xr2:uid="{009DCA6C-5860-4690-BF15-14568388A6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Data" sheetId="1" r:id="rId1"/>
@@ -2292,24 +2292,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2383,6 +2365,24 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564E22E9-C32B-4D5B-A392-A82DC3FADF74}">
   <dimension ref="A1:BX103"/>
   <sheetViews>
-    <sheetView topLeftCell="BA3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY3" sqref="BY3"/>
+    <sheetView tabSelected="1" topLeftCell="AE3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,92 +2807,92 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="23" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="25" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="23" t="s">
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62"/>
+      <c r="BJ2" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="21" t="s">
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="22"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
     </row>
     <row r="3" spans="1:76" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2958,7 +2958,7 @@
       <c r="U3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="60" t="s">
+      <c r="V3" s="54" t="s">
         <v>41</v>
       </c>
       <c r="W3" s="4" t="s">
@@ -3012,7 +3012,7 @@
       <c r="AM3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AN3" s="60" t="s">
+      <c r="AN3" s="54" t="s">
         <v>76</v>
       </c>
       <c r="AO3" s="4" t="s">
@@ -3048,10 +3048,10 @@
       <c r="AY3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AZ3" s="61" t="s">
+      <c r="AZ3" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="BA3" s="60" t="s">
+      <c r="BA3" s="54" t="s">
         <v>100</v>
       </c>
       <c r="BB3" s="4" t="s">
@@ -3066,7 +3066,7 @@
       <c r="BE3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BF3" s="58" t="s">
+      <c r="BF3" s="52" t="s">
         <v>111</v>
       </c>
       <c r="BG3" s="4" t="s">
@@ -3075,7 +3075,7 @@
       <c r="BH3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BI3" s="58" t="s">
+      <c r="BI3" s="52" t="s">
         <v>117</v>
       </c>
       <c r="BJ3" s="4" t="s">
@@ -3120,7 +3120,7 @@
       <c r="BW3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BX3" s="59" t="s">
+      <c r="BX3" s="53" t="s">
         <v>577</v>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="Z6" s="19">
         <f ca="1">Y6+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>42700</v>
+        <v>42790</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>184</v>
@@ -3693,7 +3693,7 @@
         <f>G6</f>
         <v>600004</v>
       </c>
-      <c r="BF6" s="62">
+      <c r="BF6" s="56">
         <v>24903</v>
       </c>
       <c r="BG6" s="20" t="str">
@@ -3749,7 +3749,7 @@
       <c r="BW6" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX6" s="54">
+      <c r="BX6" s="48">
         <f ca="1">(TODAY()-BF6)/365</f>
         <v>50.254794520547946</v>
       </c>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="Z7" s="19">
         <f t="shared" ref="Z7:Z70" ca="1" si="2">Y7+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>39796</v>
+        <v>39906</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>185</v>
@@ -3946,7 +3946,7 @@
         <f t="shared" ref="BE7:BE70" si="5">G7</f>
         <v>600037</v>
       </c>
-      <c r="BF7" s="62">
+      <c r="BF7" s="56">
         <v>18793</v>
       </c>
       <c r="BG7" s="20" t="str">
@@ -4002,7 +4002,7 @@
       <c r="BW7" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX7" s="54">
+      <c r="BX7" s="48">
         <f t="shared" ref="BX7:BX70" ca="1" si="8">(TODAY()-BF7)/365</f>
         <v>66.9945205479452</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="Z8" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43078</v>
+        <v>43278</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>186</v>
@@ -4199,7 +4199,7 @@
         <f t="shared" si="5"/>
         <v>603103</v>
       </c>
-      <c r="BF8" s="62">
+      <c r="BF8" s="56">
         <v>32093</v>
       </c>
       <c r="BG8" s="20" t="str">
@@ -4255,7 +4255,7 @@
       <c r="BW8" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX8" s="54">
+      <c r="BX8" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>30.556164383561644</v>
       </c>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="Z9" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43057</v>
+        <v>42917</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>187</v>
@@ -4452,7 +4452,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF9" s="62">
+      <c r="BF9" s="56">
         <v>27150</v>
       </c>
       <c r="BG9" s="20" t="str">
@@ -4508,7 +4508,7 @@
       <c r="BW9" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX9" s="54">
+      <c r="BX9" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>44.098630136986301</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="Z10" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42926</v>
+        <v>42706</v>
       </c>
       <c r="AA10" s="10" t="s">
         <v>188</v>
@@ -4705,7 +4705,7 @@
         <f t="shared" si="5"/>
         <v>600053</v>
       </c>
-      <c r="BF10" s="62">
+      <c r="BF10" s="56">
         <v>28593</v>
       </c>
       <c r="BG10" s="20" t="str">
@@ -4761,7 +4761,7 @@
       <c r="BW10" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX10" s="54">
+      <c r="BX10" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>40.145205479452052</v>
       </c>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="Z11" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43278</v>
+        <v>43078</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>189</v>
@@ -4958,7 +4958,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF11" s="62">
+      <c r="BF11" s="56">
         <v>22793</v>
       </c>
       <c r="BG11" s="20" t="str">
@@ -5015,7 +5015,7 @@
       <c r="BW11" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX11" s="54">
+      <c r="BX11" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>56.035616438356165</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="Z12" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42850</v>
+        <v>42910</v>
       </c>
       <c r="AA12" s="10" t="s">
         <v>190</v>
@@ -5212,7 +5212,7 @@
         <f t="shared" si="5"/>
         <v>600033</v>
       </c>
-      <c r="BF12" s="62">
+      <c r="BF12" s="56">
         <v>29293</v>
       </c>
       <c r="BG12" s="20" t="str">
@@ -5269,7 +5269,7 @@
       <c r="BW12" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX12" s="54">
+      <c r="BX12" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>38.227397260273975</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="Z13" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42700</v>
+        <v>42760</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>184</v>
@@ -5466,7 +5466,7 @@
         <f t="shared" si="5"/>
         <v>600041</v>
       </c>
-      <c r="BF13" s="62">
+      <c r="BF13" s="56">
         <v>39394</v>
       </c>
       <c r="BG13" s="20" t="str">
@@ -5523,7 +5523,7 @@
       <c r="BW13" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX13" s="54">
+      <c r="BX13" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>10.553424657534247</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="Z14" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42450</v>
+        <v>42610</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>185</v>
@@ -5720,7 +5720,7 @@
         <f t="shared" si="5"/>
         <v>632004</v>
       </c>
-      <c r="BF14" s="62">
+      <c r="BF14" s="56">
         <v>33506</v>
       </c>
       <c r="BG14" s="20" t="str">
@@ -5777,7 +5777,7 @@
       <c r="BW14" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX14" s="54">
+      <c r="BX14" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>26.684931506849313</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="Z15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42763</v>
+        <v>42863</v>
       </c>
       <c r="AA15" s="10" t="s">
         <v>186</v>
@@ -5974,7 +5974,7 @@
         <f t="shared" si="5"/>
         <v>625001</v>
       </c>
-      <c r="BF15" s="62">
+      <c r="BF15" s="56">
         <v>42622</v>
       </c>
       <c r="BG15" s="20" t="str">
@@ -6031,7 +6031,7 @@
       <c r="BW15" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX15" s="54">
+      <c r="BX15" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>1.7095890410958905</v>
       </c>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="Z16" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39365</v>
+        <v>39425</v>
       </c>
       <c r="AA16" s="10" t="s">
         <v>187</v>
@@ -6227,7 +6227,7 @@
         <f t="shared" si="5"/>
         <v>641004</v>
       </c>
-      <c r="BF16" s="62">
+      <c r="BF16" s="56">
         <v>31850</v>
       </c>
       <c r="BG16" s="20" t="str">
@@ -6284,7 +6284,7 @@
       <c r="BW16" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX16" s="54">
+      <c r="BX16" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>31.221917808219178</v>
       </c>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="Z17" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>36451</v>
+        <v>36551</v>
       </c>
       <c r="AA17" s="10" t="s">
         <v>188</v>
@@ -6481,7 +6481,7 @@
         <f t="shared" si="5"/>
         <v>600013</v>
       </c>
-      <c r="BF17" s="62">
+      <c r="BF17" s="56">
         <v>32784</v>
       </c>
       <c r="BG17" s="20" t="str">
@@ -6538,7 +6538,7 @@
       <c r="BW17" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX17" s="54">
+      <c r="BX17" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>28.663013698630138</v>
       </c>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="Z18" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39713</v>
+        <v>39743</v>
       </c>
       <c r="AA18" s="10" t="s">
         <v>189</v>
@@ -6735,7 +6735,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF18" s="62">
+      <c r="BF18" s="56">
         <v>15969</v>
       </c>
       <c r="BG18" s="20" t="str">
@@ -6792,7 +6792,7 @@
       <c r="BW18" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX18" s="54">
+      <c r="BX18" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>74.731506849315068</v>
       </c>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="Z19" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39612</v>
+        <v>39502</v>
       </c>
       <c r="AA19" s="10" t="s">
         <v>190</v>
@@ -6989,7 +6989,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF19" s="62">
+      <c r="BF19" s="56">
         <v>10693</v>
       </c>
       <c r="BG19" s="20" t="str">
@@ -7046,7 +7046,7 @@
       <c r="BW19" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX19" s="54">
+      <c r="BX19" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>89.186301369863017</v>
       </c>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="Z20" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39551</v>
+        <v>39741</v>
       </c>
       <c r="AA20" s="10" t="s">
         <v>187</v>
@@ -7243,7 +7243,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF20" s="62">
+      <c r="BF20" s="56">
         <v>21175</v>
       </c>
       <c r="BG20" s="20" t="str">
@@ -7300,7 +7300,7 @@
       <c r="BW20" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX20" s="54">
+      <c r="BX20" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>60.468493150684928</v>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="Z21" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39973</v>
+        <v>39733</v>
       </c>
       <c r="AA21" s="10" t="s">
         <v>188</v>
@@ -7497,7 +7497,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF21" s="62">
+      <c r="BF21" s="56">
         <v>30808</v>
       </c>
       <c r="BG21" s="20" t="str">
@@ -7554,7 +7554,7 @@
       <c r="BW21" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX21" s="54">
+      <c r="BX21" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>34.076712328767123</v>
       </c>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="Z22" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39645</v>
+        <v>39695</v>
       </c>
       <c r="AA22" s="10" t="s">
         <v>189</v>
@@ -7751,7 +7751,7 @@
         <f t="shared" si="5"/>
         <v>600033</v>
       </c>
-      <c r="BF22" s="62">
+      <c r="BF22" s="56">
         <v>34713</v>
       </c>
       <c r="BG22" s="20" t="str">
@@ -7808,7 +7808,7 @@
       <c r="BW22" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX22" s="54">
+      <c r="BX22" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>23.378082191780823</v>
       </c>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="Z23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39345</v>
+        <v>39545</v>
       </c>
       <c r="AA23" s="10" t="s">
         <v>190</v>
@@ -8005,7 +8005,7 @@
         <f t="shared" si="5"/>
         <v>600053</v>
       </c>
-      <c r="BF23" s="62">
+      <c r="BF23" s="56">
         <v>35493</v>
       </c>
       <c r="BG23" s="20" t="str">
@@ -8062,7 +8062,7 @@
       <c r="BW23" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX23" s="54">
+      <c r="BX23" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>21.241095890410961</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="Z24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39015</v>
+        <v>39075</v>
       </c>
       <c r="AA24" s="10" t="s">
         <v>184</v>
@@ -8259,7 +8259,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF24" s="62">
+      <c r="BF24" s="56">
         <v>29240</v>
       </c>
       <c r="BG24" s="20" t="str">
@@ -8316,7 +8316,7 @@
       <c r="BW24" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX24" s="54">
+      <c r="BX24" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>38.372602739726027</v>
       </c>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="Z25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39388</v>
+        <v>39538</v>
       </c>
       <c r="AA25" s="10" t="s">
         <v>185</v>
@@ -8513,7 +8513,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF25" s="62">
+      <c r="BF25" s="56">
         <v>22093</v>
       </c>
       <c r="BG25" s="20" t="str">
@@ -8570,7 +8570,7 @@
       <c r="BW25" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX25" s="54">
+      <c r="BX25" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>57.953424657534249</v>
       </c>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="Z26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42068</v>
+        <v>42138</v>
       </c>
       <c r="AA26" s="10" t="s">
         <v>184</v>
@@ -8766,7 +8766,7 @@
         <f t="shared" si="5"/>
         <v>600041</v>
       </c>
-      <c r="BF26" s="62">
+      <c r="BF26" s="56">
         <v>22735</v>
       </c>
       <c r="BG26" s="20" t="str">
@@ -8823,7 +8823,7 @@
       <c r="BW26" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX26" s="54">
+      <c r="BX26" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>56.194520547945203</v>
       </c>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="Z27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39164</v>
+        <v>38744</v>
       </c>
       <c r="AA27" s="10" t="s">
         <v>185</v>
@@ -9020,7 +9020,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF27" s="62">
+      <c r="BF27" s="56">
         <v>24193</v>
       </c>
       <c r="BG27" s="20" t="str">
@@ -9077,7 +9077,7 @@
       <c r="BW27" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX27" s="54">
+      <c r="BX27" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>52.2</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="Z28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42206</v>
+        <v>42166</v>
       </c>
       <c r="AA28" s="10" t="s">
         <v>186</v>
@@ -9274,7 +9274,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF28" s="62">
+      <c r="BF28" s="56">
         <v>20920</v>
       </c>
       <c r="BG28" s="20" t="str">
@@ -9331,7 +9331,7 @@
       <c r="BW28" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX28" s="54">
+      <c r="BX28" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>61.167123287671231</v>
       </c>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="Z29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41795</v>
+        <v>42025</v>
       </c>
       <c r="AA29" s="10" t="s">
         <v>187</v>
@@ -9528,7 +9528,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF29" s="62">
+      <c r="BF29" s="56">
         <v>34300</v>
       </c>
       <c r="BG29" s="20" t="str">
@@ -9585,7 +9585,7 @@
       <c r="BW29" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX29" s="54">
+      <c r="BX29" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>24.509589041095889</v>
       </c>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="Z30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41904</v>
+        <v>41794</v>
       </c>
       <c r="AA30" s="10" t="s">
         <v>188</v>
@@ -9782,7 +9782,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF30" s="62">
+      <c r="BF30" s="56">
         <v>31505</v>
       </c>
       <c r="BG30" s="20" t="str">
@@ -9839,7 +9839,7 @@
       <c r="BW30" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX30" s="54">
+      <c r="BX30" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>32.167123287671231</v>
       </c>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="Z31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42466</v>
+        <v>42366</v>
       </c>
       <c r="AA31" s="10" t="s">
         <v>189</v>
@@ -10036,7 +10036,7 @@
         <f t="shared" si="5"/>
         <v>600033</v>
       </c>
-      <c r="BF31" s="62">
+      <c r="BF31" s="56">
         <v>30617</v>
       </c>
       <c r="BG31" s="20" t="str">
@@ -10093,7 +10093,7 @@
       <c r="BW31" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX31" s="54">
+      <c r="BX31" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>34.6</v>
       </c>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="Z32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41768</v>
+        <v>41728</v>
       </c>
       <c r="AA32" s="10" t="s">
         <v>190</v>
@@ -10290,7 +10290,7 @@
         <f t="shared" si="5"/>
         <v>600053</v>
       </c>
-      <c r="BF32" s="62">
+      <c r="BF32" s="56">
         <v>19793</v>
       </c>
       <c r="BG32" s="20" t="str">
@@ -10347,7 +10347,7 @@
       <c r="BW32" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX32" s="54">
+      <c r="BX32" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>64.254794520547946</v>
       </c>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="Z33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41808</v>
+        <v>42088</v>
       </c>
       <c r="AA33" s="10" t="s">
         <v>187</v>
@@ -10544,7 +10544,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF33" s="62">
+      <c r="BF33" s="56">
         <v>26441</v>
       </c>
       <c r="BG33" s="20" t="str">
@@ -10601,7 +10601,7 @@
       <c r="BW33" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX33" s="54">
+      <c r="BX33" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>46.041095890410958</v>
       </c>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="Z34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41648</v>
+        <v>41408</v>
       </c>
       <c r="AA34" s="10" t="s">
         <v>188</v>
@@ -10798,7 +10798,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF34" s="62">
+      <c r="BF34" s="56">
         <v>34489</v>
       </c>
       <c r="BG34" s="20" t="str">
@@ -10855,7 +10855,7 @@
       <c r="BW34" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX34" s="54">
+      <c r="BX34" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>23.991780821917807</v>
       </c>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="Z35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41881</v>
+        <v>42201</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>189</v>
@@ -11052,7 +11052,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF35" s="62">
+      <c r="BF35" s="56">
         <v>28151</v>
       </c>
       <c r="BG35" s="20" t="str">
@@ -11109,7 +11109,7 @@
       <c r="BW35" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX35" s="54">
+      <c r="BX35" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>41.356164383561641</v>
       </c>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="Z36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41856</v>
+        <v>42056</v>
       </c>
       <c r="AA36" s="10" t="s">
         <v>190</v>
@@ -11305,7 +11305,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF36" s="62">
+      <c r="BF36" s="56">
         <v>38470</v>
       </c>
       <c r="BG36" s="20" t="str">
@@ -11362,7 +11362,7 @@
       <c r="BW36" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX36" s="54">
+      <c r="BX36" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>13.084931506849315</v>
       </c>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="Z37" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38892</v>
+        <v>38792</v>
       </c>
       <c r="AA37" s="10" t="s">
         <v>184</v>
@@ -11559,7 +11559,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF37" s="62">
+      <c r="BF37" s="56">
         <v>36894</v>
       </c>
       <c r="BG37" s="20" t="str">
@@ -11616,7 +11616,7 @@
       <c r="BW37" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX37" s="54">
+      <c r="BX37" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>17.402739726027399</v>
       </c>
@@ -11714,7 +11714,7 @@
       </c>
       <c r="Z38" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42364</v>
+        <v>42094</v>
       </c>
       <c r="AA38" s="10" t="s">
         <v>185</v>
@@ -11813,7 +11813,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF38" s="62">
+      <c r="BF38" s="56">
         <v>7369</v>
       </c>
       <c r="BG38" s="20" t="str">
@@ -11870,7 +11870,7 @@
       <c r="BW38" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX38" s="54">
+      <c r="BX38" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>98.293150684931504</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="Z39" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42043</v>
+        <v>41893</v>
       </c>
       <c r="AA39" s="10" t="s">
         <v>189</v>
@@ -12067,7 +12067,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF39" s="62">
+      <c r="BF39" s="56">
         <v>23435</v>
       </c>
       <c r="BG39" s="20" t="str">
@@ -12124,7 +12124,7 @@
       <c r="BW39" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX39" s="54">
+      <c r="BX39" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>54.276712328767125</v>
       </c>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="Z40" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42122</v>
+        <v>42002</v>
       </c>
       <c r="AA40" s="10" t="s">
         <v>190</v>
@@ -12321,7 +12321,7 @@
         <f t="shared" si="5"/>
         <v>600041</v>
       </c>
-      <c r="BF40" s="62">
+      <c r="BF40" s="56">
         <v>8288</v>
       </c>
       <c r="BG40" s="20" t="str">
@@ -12378,7 +12378,7 @@
       <c r="BW40" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX40" s="54">
+      <c r="BX40" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>95.775342465753425</v>
       </c>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="Z41" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42184</v>
+        <v>42374</v>
       </c>
       <c r="AA41" s="10" t="s">
         <v>184</v>
@@ -12575,7 +12575,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF41" s="62">
+      <c r="BF41" s="56">
         <v>37794</v>
       </c>
       <c r="BG41" s="20" t="str">
@@ -12632,7 +12632,7 @@
       <c r="BW41" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX41" s="54">
+      <c r="BX41" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>14.936986301369863</v>
       </c>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="Z42" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41886</v>
+        <v>41786</v>
       </c>
       <c r="AA42" s="10" t="s">
         <v>185</v>
@@ -12829,7 +12829,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF42" s="62">
+      <c r="BF42" s="56">
         <v>33293</v>
       </c>
       <c r="BG42" s="20" t="str">
@@ -12886,7 +12886,7 @@
       <c r="BW42" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX42" s="54">
+      <c r="BX42" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>27.268493150684932</v>
       </c>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="Z43" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41896</v>
+        <v>41806</v>
       </c>
       <c r="AA43" s="10" t="s">
         <v>186</v>
@@ -13083,7 +13083,7 @@
         <f t="shared" si="5"/>
         <v>600013</v>
       </c>
-      <c r="BF43" s="62">
+      <c r="BF43" s="56">
         <v>35593</v>
       </c>
       <c r="BG43" s="20" t="str">
@@ -13140,7 +13140,7 @@
       <c r="BW43" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX43" s="54">
+      <c r="BX43" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>20.967123287671232</v>
       </c>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="Z44" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41666</v>
+        <v>41336</v>
       </c>
       <c r="AA44" s="10" t="s">
         <v>187</v>
@@ -13337,7 +13337,7 @@
         <f t="shared" si="5"/>
         <v>600053</v>
       </c>
-      <c r="BF44" s="62">
+      <c r="BF44" s="56">
         <v>35993</v>
       </c>
       <c r="BG44" s="20" t="str">
@@ -13394,7 +13394,7 @@
       <c r="BW44" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX44" s="54">
+      <c r="BX44" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>19.87123287671233</v>
       </c>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="Z45" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41769</v>
+        <v>41929</v>
       </c>
       <c r="AA45" s="10" t="s">
         <v>188</v>
@@ -13591,7 +13591,7 @@
         <f t="shared" si="5"/>
         <v>641004</v>
       </c>
-      <c r="BF45" s="62">
+      <c r="BF45" s="56">
         <v>39718</v>
       </c>
       <c r="BG45" s="20" t="str">
@@ -13648,7 +13648,7 @@
       <c r="BW45" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX45" s="54">
+      <c r="BX45" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>9.6657534246575345</v>
       </c>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="Z46" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42245</v>
+        <v>42475</v>
       </c>
       <c r="AA46" s="10" t="s">
         <v>189</v>
@@ -13844,7 +13844,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF46" s="62">
+      <c r="BF46" s="56">
         <v>32793</v>
       </c>
       <c r="BG46" s="20" t="str">
@@ -13901,7 +13901,7 @@
       <c r="BW46" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX46" s="54">
+      <c r="BX46" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>28.638356164383563</v>
       </c>
@@ -14098,7 +14098,7 @@
         <f t="shared" si="5"/>
         <v>625001</v>
       </c>
-      <c r="BF47" s="62">
+      <c r="BF47" s="56">
         <v>12393</v>
       </c>
       <c r="BG47" s="20" t="str">
@@ -14155,7 +14155,7 @@
       <c r="BW47" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX47" s="54">
+      <c r="BX47" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>84.528767123287665</v>
       </c>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="Z48" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42813</v>
+        <v>42633</v>
       </c>
       <c r="AA48" s="10" t="s">
         <v>187</v>
@@ -14352,7 +14352,7 @@
         <f t="shared" si="5"/>
         <v>641004</v>
       </c>
-      <c r="BF48" s="62">
+      <c r="BF48" s="56">
         <v>38792</v>
       </c>
       <c r="BG48" s="20" t="str">
@@ -14409,7 +14409,7 @@
       <c r="BW48" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX48" s="54">
+      <c r="BX48" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>12.202739726027398</v>
       </c>
@@ -14507,7 +14507,7 @@
       </c>
       <c r="Z49" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42582</v>
+        <v>42562</v>
       </c>
       <c r="AA49" s="10" t="s">
         <v>188</v>
@@ -14606,7 +14606,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF49" s="62">
+      <c r="BF49" s="56">
         <v>41735</v>
       </c>
       <c r="BG49" s="20" t="str">
@@ -14663,7 +14663,7 @@
       <c r="BW49" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX49" s="54">
+      <c r="BX49" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>4.13972602739726</v>
       </c>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="Z50" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42631</v>
+        <v>42201</v>
       </c>
       <c r="AA50" s="10" t="s">
         <v>184</v>
@@ -14860,7 +14860,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF50" s="62">
+      <c r="BF50" s="56">
         <v>35733</v>
       </c>
       <c r="BG50" s="20" t="str">
@@ -14917,7 +14917,7 @@
       <c r="BW50" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX50" s="54">
+      <c r="BX50" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>20.583561643835615</v>
       </c>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="Z51" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42763</v>
+        <v>42653</v>
       </c>
       <c r="AA51" s="10" t="s">
         <v>185</v>
@@ -15114,7 +15114,7 @@
         <f t="shared" si="5"/>
         <v>600022</v>
       </c>
-      <c r="BF51" s="62">
+      <c r="BF51" s="56">
         <v>39870</v>
       </c>
       <c r="BG51" s="20" t="str">
@@ -15171,7 +15171,7 @@
       <c r="BW51" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX51" s="54">
+      <c r="BX51" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>9.24931506849315</v>
       </c>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="Z52" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42245</v>
+        <v>42155</v>
       </c>
       <c r="AA52" s="10" t="s">
         <v>186</v>
@@ -15368,7 +15368,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF52" s="62">
+      <c r="BF52" s="56">
         <v>38663</v>
       </c>
       <c r="BG52" s="20" t="str">
@@ -15425,7 +15425,7 @@
       <c r="BW52" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX52" s="54">
+      <c r="BX52" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>12.556164383561644</v>
       </c>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="Z53" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42485</v>
       </c>
       <c r="AA53" s="10" t="s">
         <v>187</v>
@@ -15622,7 +15622,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF53" s="62">
+      <c r="BF53" s="56">
         <v>37841</v>
       </c>
       <c r="BG53" s="20" t="str">
@@ -15679,7 +15679,7 @@
       <c r="BW53" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX53" s="54">
+      <c r="BX53" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>14.808219178082192</v>
       </c>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="Z54" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41855</v>
+        <v>41815</v>
       </c>
       <c r="AA54" s="10" t="s">
         <v>188</v>
@@ -15876,7 +15876,7 @@
         <f t="shared" si="5"/>
         <v>603103</v>
       </c>
-      <c r="BF54" s="62">
+      <c r="BF54" s="56">
         <v>24808</v>
       </c>
       <c r="BG54" s="20" t="str">
@@ -15933,7 +15933,7 @@
       <c r="BW54" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX54" s="54">
+      <c r="BX54" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>50.515068493150686</v>
       </c>
@@ -16130,7 +16130,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF55" s="62">
+      <c r="BF55" s="56">
         <v>35000</v>
       </c>
       <c r="BG55" s="20" t="str">
@@ -16187,7 +16187,7 @@
       <c r="BW55" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX55" s="54">
+      <c r="BX55" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>22.591780821917808</v>
       </c>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="Z56" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43011</v>
+        <v>43151</v>
       </c>
       <c r="AA56" s="10" t="s">
         <v>190</v>
@@ -16383,7 +16383,7 @@
         <f t="shared" si="5"/>
         <v>641004</v>
       </c>
-      <c r="BF56" s="62">
+      <c r="BF56" s="56">
         <v>20783</v>
       </c>
       <c r="BG56" s="20" t="str">
@@ -16440,7 +16440,7 @@
       <c r="BW56" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX56" s="54">
+      <c r="BX56" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>61.542465753424658</v>
       </c>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="Z57" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>40107</v>
+        <v>40267</v>
       </c>
       <c r="AA57" s="10" t="s">
         <v>184</v>
@@ -16637,7 +16637,7 @@
         <f t="shared" si="5"/>
         <v>600041</v>
       </c>
-      <c r="BF57" s="62">
+      <c r="BF57" s="56">
         <v>23873</v>
       </c>
       <c r="BG57" s="20" t="str">
@@ -16694,7 +16694,7 @@
       <c r="BW57" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX57" s="54">
+      <c r="BX57" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>53.076712328767123</v>
       </c>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="Z58" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43709</v>
+        <v>43459</v>
       </c>
       <c r="AA58" s="10" t="s">
         <v>185</v>
@@ -16891,7 +16891,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF58" s="62">
+      <c r="BF58" s="56">
         <v>36393</v>
       </c>
       <c r="BG58" s="20" t="str">
@@ -16948,7 +16948,7 @@
       <c r="BW58" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX58" s="54">
+      <c r="BX58" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>18.775342465753425</v>
       </c>
@@ -17046,7 +17046,7 @@
       </c>
       <c r="Z59" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43088</v>
+        <v>43058</v>
       </c>
       <c r="AA59" s="10" t="s">
         <v>186</v>
@@ -17145,7 +17145,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF59" s="62">
+      <c r="BF59" s="56">
         <v>37380</v>
       </c>
       <c r="BG59" s="20" t="str">
@@ -17202,7 +17202,7 @@
       <c r="BW59" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX59" s="54">
+      <c r="BX59" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>16.07123287671233</v>
       </c>
@@ -17300,7 +17300,7 @@
       </c>
       <c r="Z60" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43147</v>
+        <v>43347</v>
       </c>
       <c r="AA60" s="10" t="s">
         <v>187</v>
@@ -17399,7 +17399,7 @@
         <f t="shared" si="5"/>
         <v>632004</v>
       </c>
-      <c r="BF60" s="62">
+      <c r="BF60" s="56">
         <v>29773</v>
       </c>
       <c r="BG60" s="20" t="str">
@@ -17456,7 +17456,7 @@
       <c r="BW60" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX60" s="54">
+      <c r="BX60" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>36.912328767123284</v>
       </c>
@@ -17554,7 +17554,7 @@
       </c>
       <c r="Z61" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43689</v>
+        <v>43669</v>
       </c>
       <c r="AA61" s="10" t="s">
         <v>188</v>
@@ -17653,7 +17653,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF61" s="62">
+      <c r="BF61" s="56">
         <v>31293</v>
       </c>
       <c r="BG61" s="20" t="str">
@@ -17710,7 +17710,7 @@
       <c r="BW61" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX61" s="54">
+      <c r="BX61" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>32.747945205479454</v>
       </c>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="Z62" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42921</v>
+        <v>42951</v>
       </c>
       <c r="AA62" s="10" t="s">
         <v>189</v>
@@ -17907,7 +17907,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF62" s="62">
+      <c r="BF62" s="56">
         <v>42054</v>
       </c>
       <c r="BG62" s="20" t="str">
@@ -17964,7 +17964,7 @@
       <c r="BW62" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX62" s="54">
+      <c r="BX62" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>3.2657534246575342</v>
       </c>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="Z63" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43171</v>
+        <v>43091</v>
       </c>
       <c r="AA63" s="10" t="s">
         <v>190</v>
@@ -18161,7 +18161,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF63" s="62">
+      <c r="BF63" s="56">
         <v>15826</v>
       </c>
       <c r="BG63" s="20" t="str">
@@ -18218,7 +18218,7 @@
       <c r="BW63" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX63" s="54">
+      <c r="BX63" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>75.123287671232873</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="Z64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42771</v>
+        <v>42921</v>
       </c>
       <c r="AA64" s="10" t="s">
         <v>187</v>
@@ -18415,7 +18415,7 @@
         <f t="shared" si="5"/>
         <v>632004</v>
       </c>
-      <c r="BF64" s="62">
+      <c r="BF64" s="56">
         <v>30255</v>
       </c>
       <c r="BG64" s="20" t="str">
@@ -18472,7 +18472,7 @@
       <c r="BW64" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX64" s="54">
+      <c r="BX64" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>35.591780821917808</v>
       </c>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="Z65" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43114</v>
+        <v>43124</v>
       </c>
       <c r="AA65" s="10" t="s">
         <v>188</v>
@@ -18669,7 +18669,7 @@
         <f t="shared" si="5"/>
         <v>632004</v>
       </c>
-      <c r="BF65" s="62">
+      <c r="BF65" s="56">
         <v>19593</v>
       </c>
       <c r="BG65" s="20" t="str">
@@ -18726,7 +18726,7 @@
       <c r="BW65" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX65" s="54">
+      <c r="BX65" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>64.802739726027397</v>
       </c>
@@ -18823,7 +18823,7 @@
       </c>
       <c r="Z66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41128</v>
+        <v>41368</v>
       </c>
       <c r="AA66" s="10" t="s">
         <v>189</v>
@@ -18922,7 +18922,7 @@
         <f t="shared" si="5"/>
         <v>632004</v>
       </c>
-      <c r="BF66" s="62">
+      <c r="BF66" s="56">
         <v>27672</v>
       </c>
       <c r="BG66" s="20" t="str">
@@ -18979,7 +18979,7 @@
       <c r="BW66" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX66" s="54">
+      <c r="BX66" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>42.668493150684931</v>
       </c>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="Z67" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38294</v>
+        <v>38464</v>
       </c>
       <c r="AA67" s="10" t="s">
         <v>190</v>
@@ -19176,7 +19176,7 @@
         <f t="shared" si="5"/>
         <v>600037</v>
       </c>
-      <c r="BF67" s="62">
+      <c r="BF67" s="56">
         <v>26680</v>
       </c>
       <c r="BG67" s="20" t="str">
@@ -19233,7 +19233,7 @@
       <c r="BW67" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX67" s="54">
+      <c r="BX67" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>45.386301369863013</v>
       </c>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="Z68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41526</v>
+        <v>41586</v>
       </c>
       <c r="AA68" s="10" t="s">
         <v>184</v>
@@ -19430,7 +19430,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF68" s="62">
+      <c r="BF68" s="56">
         <v>39918</v>
       </c>
       <c r="BG68" s="20" t="str">
@@ -19487,7 +19487,7 @@
       <c r="BW68" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX68" s="54">
+      <c r="BX68" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>9.117808219178082</v>
       </c>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="Z69" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41625</v>
+        <v>41245</v>
       </c>
       <c r="AA69" s="10" t="s">
         <v>185</v>
@@ -19684,7 +19684,7 @@
         <f t="shared" si="5"/>
         <v>650103</v>
       </c>
-      <c r="BF69" s="62">
+      <c r="BF69" s="56">
         <v>23808</v>
       </c>
       <c r="BG69" s="20" t="str">
@@ -19741,7 +19741,7 @@
       <c r="BW69" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX69" s="54">
+      <c r="BX69" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>53.254794520547946</v>
       </c>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="Z70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41124</v>
+        <v>41484</v>
       </c>
       <c r="AA70" s="10" t="s">
         <v>184</v>
@@ -19938,7 +19938,7 @@
         <f t="shared" si="5"/>
         <v>600004</v>
       </c>
-      <c r="BF70" s="62">
+      <c r="BF70" s="56">
         <v>22308</v>
       </c>
       <c r="BG70" s="20" t="str">
@@ -19995,7 +19995,7 @@
       <c r="BW70" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX70" s="54">
+      <c r="BX70" s="48">
         <f t="shared" ca="1" si="8"/>
         <v>57.364383561643834</v>
       </c>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="Z71" s="19">
         <f t="shared" ref="Z71:Z76" ca="1" si="12">Y71+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>41726</v>
+        <v>41786</v>
       </c>
       <c r="AA71" s="10" t="s">
         <v>185</v>
@@ -20192,7 +20192,7 @@
         <f t="shared" ref="BE71:BE76" si="15">G71</f>
         <v>600053</v>
       </c>
-      <c r="BF71" s="62">
+      <c r="BF71" s="56">
         <v>25355</v>
       </c>
       <c r="BG71" s="20" t="str">
@@ -20249,7 +20249,7 @@
       <c r="BW71" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX71" s="54">
+      <c r="BX71" s="48">
         <f t="shared" ref="BX71:BX76" ca="1" si="18">(TODAY()-BF71)/365</f>
         <v>49.016438356164386</v>
       </c>
@@ -20347,7 +20347,7 @@
       </c>
       <c r="Z72" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41208</v>
+        <v>41398</v>
       </c>
       <c r="AA72" s="10" t="s">
         <v>186</v>
@@ -20446,7 +20446,7 @@
         <f t="shared" si="15"/>
         <v>625001</v>
       </c>
-      <c r="BF72" s="62">
+      <c r="BF72" s="56">
         <v>24593</v>
       </c>
       <c r="BG72" s="20" t="str">
@@ -20503,7 +20503,7 @@
       <c r="BW72" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX72" s="54">
+      <c r="BX72" s="48">
         <f t="shared" ca="1" si="18"/>
         <v>51.104109589041094</v>
       </c>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="Z73" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41488</v>
+        <v>41068</v>
       </c>
       <c r="AA73" s="10" t="s">
         <v>187</v>
@@ -20700,7 +20700,7 @@
         <f t="shared" si="15"/>
         <v>603103</v>
       </c>
-      <c r="BF73" s="62">
+      <c r="BF73" s="56">
         <v>31893</v>
       </c>
       <c r="BG73" s="20" t="str">
@@ -20757,7 +20757,7 @@
       <c r="BW73" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX73" s="54">
+      <c r="BX73" s="48">
         <f t="shared" ca="1" si="18"/>
         <v>31.104109589041094</v>
       </c>
@@ -20855,7 +20855,7 @@
       </c>
       <c r="Z74" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>40938</v>
+        <v>40718</v>
       </c>
       <c r="AA74" s="10" t="s">
         <v>188</v>
@@ -20954,7 +20954,7 @@
         <f t="shared" si="15"/>
         <v>603103</v>
       </c>
-      <c r="BF74" s="62">
+      <c r="BF74" s="56">
         <v>20693</v>
       </c>
       <c r="BG74" s="20" t="str">
@@ -21011,7 +21011,7 @@
       <c r="BW74" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX74" s="54">
+      <c r="BX74" s="48">
         <f t="shared" ca="1" si="18"/>
         <v>61.789041095890411</v>
       </c>
@@ -21109,7 +21109,7 @@
       </c>
       <c r="Z75" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41551</v>
+        <v>41561</v>
       </c>
       <c r="AA75" s="10" t="s">
         <v>189</v>
@@ -21208,7 +21208,7 @@
         <f t="shared" si="15"/>
         <v>600037</v>
       </c>
-      <c r="BF75" s="62">
+      <c r="BF75" s="56">
         <v>42994</v>
       </c>
       <c r="BG75" s="20" t="str">
@@ -21265,7 +21265,7 @@
       <c r="BW75" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX75" s="54">
+      <c r="BX75" s="48">
         <f t="shared" ca="1" si="18"/>
         <v>0.69041095890410964</v>
       </c>
@@ -21362,7 +21362,7 @@
       </c>
       <c r="Z76" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>43589</v>
+        <v>43789</v>
       </c>
       <c r="AA76" s="10" t="s">
         <v>190</v>
@@ -21461,7 +21461,7 @@
         <f t="shared" si="15"/>
         <v>600004</v>
       </c>
-      <c r="BF76" s="62">
+      <c r="BF76" s="56">
         <v>32893</v>
       </c>
       <c r="BG76" s="20" t="str">
@@ -21518,7 +21518,7 @@
       <c r="BW76" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="BX76" s="54">
+      <c r="BX76" s="48">
         <f t="shared" ca="1" si="18"/>
         <v>28.364383561643837</v>
       </c>
@@ -21748,7 +21748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9479AC8-9E95-4931-A987-89DA8CD18C38}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -21761,19 +21761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="22" t="s">
         <v>583</v>
       </c>
     </row>
@@ -21789,10 +21789,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>585</v>
       </c>
       <c r="C4" t="str">
@@ -21866,7 +21866,7 @@
       <c r="B9" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>583</v>
       </c>
       <c r="D9" t="s">
@@ -21877,7 +21877,7 @@
       <c r="A10" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>583</v>
       </c>
       <c r="D10" t="s">
@@ -21888,7 +21888,7 @@
       <c r="A11" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="22" t="s">
         <v>583</v>
       </c>
       <c r="D11" t="s">
@@ -21899,7 +21899,7 @@
       <c r="A12" t="s">
         <v>577</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>583</v>
       </c>
       <c r="D12" t="s">
@@ -21907,7 +21907,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="47" t="s">
         <v>98</v>
       </c>
       <c r="B13" t="s">
@@ -22037,34 +22037,34 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="42"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36"/>
     </row>
     <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -22073,23 +22073,23 @@
       <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="38" t="str">
+      <c r="E3" s="32" t="str">
         <f>UPPER(D3)&amp;"NO"</f>
         <v>PRIMARY DIAGNOSIS CODENO</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="25" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -22098,29 +22098,29 @@
       <c r="J3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="38" t="str">
+      <c r="Q3" s="32" t="str">
         <f>UPPER(P3)&amp;"NO"</f>
         <v>ADDITIONAL PROCEDURE CODE 1NO</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="25" t="s">
         <v>82</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -22141,16 +22141,16 @@
       <c r="X3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="Y3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" s="53" t="s">
+      <c r="Z3" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AA3" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AB3" s="25" t="s">
         <v>100</v>
       </c>
     </row>
@@ -22161,22 +22161,22 @@
       <c r="B4" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="39">
         <v>1</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <v>1</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="26" t="s">
         <v>246</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -22185,28 +22185,28 @@
       <c r="J4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="33">
         <v>1</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="28">
         <v>1</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="26" t="s">
         <v>252</v>
       </c>
       <c r="S4" s="10" t="s">
@@ -22227,16 +22227,16 @@
       <c r="X4" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="28">
         <v>6</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AB4" s="26" t="s">
         <v>242</v>
       </c>
     </row>
@@ -22247,22 +22247,22 @@
       <c r="B5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="33">
         <v>2</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="26" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -22271,28 +22271,28 @@
       <c r="J5" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="33">
         <v>2</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="28">
         <v>2</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="26" t="s">
         <v>265</v>
       </c>
       <c r="S5" s="10" t="s">
@@ -22313,16 +22313,16 @@
       <c r="X5" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="30" t="s">
+      <c r="Y5" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5" s="28">
         <v>1</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="26" t="s">
         <v>596</v>
       </c>
     </row>
@@ -22333,22 +22333,22 @@
       <c r="B6" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="39">
         <v>3</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="33">
         <v>3</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="26" t="s">
         <v>272</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -22357,28 +22357,28 @@
       <c r="J6" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="33">
         <v>3</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="28">
         <v>3</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="26" t="s">
         <v>278</v>
       </c>
       <c r="S6" s="10" t="s">
@@ -22399,16 +22399,16 @@
       <c r="X6" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="Z6" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6" s="28">
         <v>11</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="26" t="s">
         <v>243</v>
       </c>
     </row>
@@ -22419,22 +22419,22 @@
       <c r="B7" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="39">
         <v>4</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="33">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="26" t="s">
         <v>285</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -22443,28 +22443,28 @@
       <c r="J7" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="33">
         <v>4</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="28">
         <v>4</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="26" t="s">
         <v>291</v>
       </c>
       <c r="S7" s="10" t="s">
@@ -22485,14 +22485,14 @@
       <c r="X7" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="33" t="s">
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="28">
         <v>12</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AB7" s="26" t="s">
         <v>244</v>
       </c>
     </row>
@@ -22503,20 +22503,20 @@
       <c r="B8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="39">
         <v>5</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="33">
         <v>5</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="26" t="s">
         <v>298</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -22525,28 +22525,28 @@
       <c r="J8" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="33">
         <v>5</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="28">
         <v>5</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="26" t="s">
         <v>304</v>
       </c>
       <c r="S8" s="10" t="s">
@@ -22567,14 +22567,14 @@
       <c r="X8" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="35" t="s">
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="AA8" s="36">
+      <c r="AA8" s="30">
         <v>7</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="26" t="s">
         <v>592</v>
       </c>
     </row>
@@ -22585,20 +22585,20 @@
       <c r="B9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="39">
         <v>6</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="33">
         <v>6</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="26" t="s">
         <v>311</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -22607,26 +22607,26 @@
       <c r="J9" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="33">
         <v>6</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="33" t="s">
+      <c r="O9" s="24"/>
+      <c r="P9" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="28">
         <v>6</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="26" t="s">
         <v>317</v>
       </c>
       <c r="S9" s="10" t="s">
@@ -22657,20 +22657,20 @@
       <c r="B10" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="39">
         <v>7</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="33">
         <v>7</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="26" t="s">
         <v>324</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -22679,26 +22679,26 @@
       <c r="J10" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="33">
         <v>7</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="33" t="s">
+      <c r="O10" s="24"/>
+      <c r="P10" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="28">
         <v>7</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="26" t="s">
         <v>330</v>
       </c>
       <c r="S10" s="10" t="s">
@@ -22727,20 +22727,20 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="39">
         <v>8</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="33">
         <v>8</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="26" t="s">
         <v>337</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -22749,26 +22749,26 @@
       <c r="J11" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="33">
         <v>8</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="33" t="s">
+      <c r="O11" s="24"/>
+      <c r="P11" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="28">
         <v>8</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="26" t="s">
         <v>343</v>
       </c>
       <c r="S11" s="10" t="s">
@@ -22797,20 +22797,20 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="39">
         <v>9</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="33">
         <v>9</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="26" t="s">
         <v>350</v>
       </c>
       <c r="I12" s="10" t="s">
@@ -22819,26 +22819,26 @@
       <c r="J12" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="33">
         <v>9</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="33" t="s">
+      <c r="O12" s="24"/>
+      <c r="P12" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="28">
         <v>9</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="26" t="s">
         <v>356</v>
       </c>
       <c r="S12" s="10" t="s">
@@ -22867,20 +22867,20 @@
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="39">
         <v>10</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="33">
         <v>10</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="26" t="s">
         <v>363</v>
       </c>
       <c r="I13" s="10" t="s">
@@ -22889,26 +22889,26 @@
       <c r="J13" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="33">
         <v>10</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="33" t="s">
+      <c r="O13" s="24"/>
+      <c r="P13" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="28">
         <v>10</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="26" t="s">
         <v>369</v>
       </c>
       <c r="S13" s="10" t="s">
@@ -22937,20 +22937,20 @@
     <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="41">
         <v>11</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="34">
         <v>11</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="26" t="s">
         <v>376</v>
       </c>
       <c r="I14" s="10" t="s">
@@ -22959,26 +22959,26 @@
       <c r="J14" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="33">
         <v>11</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="33" t="s">
+      <c r="O14" s="24"/>
+      <c r="P14" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="28">
         <v>11</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="26" t="s">
         <v>382</v>
       </c>
       <c r="S14" s="10" t="s">
@@ -23007,24 +23007,24 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="39" t="s">
+      <c r="K15" s="24"/>
+      <c r="L15" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="33">
         <v>12</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="33" t="s">
+      <c r="O15" s="24"/>
+      <c r="P15" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="28">
         <v>12</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="26" t="s">
         <v>387</v>
       </c>
       <c r="S15" s="10" t="s">
@@ -23053,24 +23053,24 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="33">
         <v>13</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="33" t="s">
+      <c r="O16" s="24"/>
+      <c r="P16" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="28">
         <v>13</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="26" t="s">
         <v>392</v>
       </c>
       <c r="S16" s="10" t="s">
@@ -23099,24 +23099,24 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="40" t="s">
+      <c r="K17" s="24"/>
+      <c r="L17" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="34">
         <v>14</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="35" t="s">
+      <c r="O17" s="24"/>
+      <c r="P17" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="30">
         <v>14</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="26" t="s">
         <v>397</v>
       </c>
       <c r="S17" s="10" t="s">
@@ -23159,13 +23159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>125</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -23182,13 +23182,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>410</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -23205,13 +23205,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="28">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>411</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -23228,13 +23228,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="28">
         <v>3</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>412</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -23251,13 +23251,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="28">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>413</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -23274,13 +23274,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="28">
         <v>5</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="26" t="s">
         <v>414</v>
       </c>
       <c r="D6" s="10"/>
@@ -23289,65 +23289,65 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="28">
         <v>6</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="28">
         <v>7</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="28">
         <v>8</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="28">
         <v>9</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="30">
         <v>10</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -23439,17 +23439,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="52" t="str">
+      <c r="C2" s="46" t="str">
         <f>UPPER(B2)&amp;"NO"</f>
         <v>BILLING PROVIDER CODENO</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -23475,16 +23475,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="28">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -23511,16 +23511,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="28">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="26" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -23547,16 +23547,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -23583,16 +23583,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="28">
         <v>4</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="26" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -23619,16 +23619,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="28">
         <v>5</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -23655,16 +23655,16 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="28">
         <v>6</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="26" t="s">
         <v>174</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -23691,16 +23691,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="28">
         <v>7</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -23727,16 +23727,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="28">
         <v>8</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="26" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -23763,16 +23763,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="28">
         <v>9</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -23799,16 +23799,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="28">
         <v>10</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="26" t="s">
         <v>172</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -23835,16 +23835,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="28">
         <v>11</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -23871,16 +23871,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="30">
         <v>12</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E14" s="10" t="s">

--- a/Dataset_V0.xlsx
+++ b/Dataset_V0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arun\WIP\Hackathon\2018\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6815517-CB9B-46C0-BCFB-6F79D58C26F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E6B5E-52F7-4FB5-BF05-36F8EDC438CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="8805" xr2:uid="{009DCA6C-5860-4690-BF15-14568388A6A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="8805" activeTab="2" xr2:uid="{009DCA6C-5860-4690-BF15-14568388A6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="602">
   <si>
     <t>Entity</t>
   </si>
@@ -1827,6 +1827,18 @@
   </si>
   <si>
     <t>ClaimRejectCode</t>
+  </si>
+  <si>
+    <t>MIN PROB</t>
+  </si>
+  <si>
+    <t>MAX PROB</t>
+  </si>
+  <si>
+    <t>MIN IMPACT</t>
+  </si>
+  <si>
+    <t>MAX IMPACT</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2231,12 +2243,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -2383,6 +2408,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2701,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564E22E9-C32B-4D5B-A392-A82DC3FADF74}">
   <dimension ref="A1:BX103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,7 +3625,7 @@
       </c>
       <c r="Z6" s="19">
         <f ca="1">Y6+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>42790</v>
+        <v>42750</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>184</v>
@@ -3751,7 +3782,7 @@
       </c>
       <c r="BX6" s="48">
         <f ca="1">(TODAY()-BF6)/365</f>
-        <v>50.254794520547946</v>
+        <v>50.257534246575339</v>
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.25">
@@ -3847,7 +3878,7 @@
       </c>
       <c r="Z7" s="19">
         <f t="shared" ref="Z7:Z70" ca="1" si="2">Y7+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>39906</v>
+        <v>40006</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>185</v>
@@ -4004,7 +4035,7 @@
       </c>
       <c r="BX7" s="48">
         <f t="shared" ref="BX7:BX70" ca="1" si="8">(TODAY()-BF7)/365</f>
-        <v>66.9945205479452</v>
+        <v>66.9972602739726</v>
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.25">
@@ -4100,7 +4131,7 @@
       </c>
       <c r="Z8" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43278</v>
+        <v>43008</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>186</v>
@@ -4257,7 +4288,7 @@
       </c>
       <c r="BX8" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>30.556164383561644</v>
+        <v>30.55890410958904</v>
       </c>
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.25">
@@ -4353,7 +4384,7 @@
       </c>
       <c r="Z9" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42917</v>
+        <v>43047</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>187</v>
@@ -4510,7 +4541,7 @@
       </c>
       <c r="BX9" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>44.098630136986301</v>
+        <v>44.101369863013701</v>
       </c>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.25">
@@ -4606,7 +4637,7 @@
       </c>
       <c r="Z10" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42706</v>
+        <v>42726</v>
       </c>
       <c r="AA10" s="10" t="s">
         <v>188</v>
@@ -4763,7 +4794,7 @@
       </c>
       <c r="BX10" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>40.145205479452052</v>
+        <v>40.147945205479452</v>
       </c>
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.25">
@@ -4859,7 +4890,7 @@
       </c>
       <c r="Z11" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43078</v>
+        <v>43208</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>189</v>
@@ -5017,7 +5048,7 @@
       </c>
       <c r="BX11" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>56.035616438356165</v>
+        <v>56.038356164383565</v>
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.25">
@@ -5113,7 +5144,7 @@
       </c>
       <c r="Z12" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42910</v>
+        <v>42780</v>
       </c>
       <c r="AA12" s="10" t="s">
         <v>190</v>
@@ -5271,7 +5302,7 @@
       </c>
       <c r="BX12" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>38.227397260273975</v>
+        <v>38.230136986301368</v>
       </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.25">
@@ -5367,7 +5398,7 @@
       </c>
       <c r="Z13" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42760</v>
+        <v>42520</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>184</v>
@@ -5525,7 +5556,7 @@
       </c>
       <c r="BX13" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>10.553424657534247</v>
+        <v>10.556164383561644</v>
       </c>
     </row>
     <row r="14" spans="1:76" x14ac:dyDescent="0.25">
@@ -5621,7 +5652,7 @@
       </c>
       <c r="Z14" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42610</v>
+        <v>42220</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>185</v>
@@ -5779,7 +5810,7 @@
       </c>
       <c r="BX14" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>26.684931506849313</v>
+        <v>26.687671232876713</v>
       </c>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.25">
@@ -5875,7 +5906,7 @@
       </c>
       <c r="Z15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42863</v>
+        <v>42713</v>
       </c>
       <c r="AA15" s="10" t="s">
         <v>186</v>
@@ -6033,7 +6064,7 @@
       </c>
       <c r="BX15" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7095890410958905</v>
+        <v>1.7123287671232876</v>
       </c>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.25">
@@ -6128,7 +6159,7 @@
       </c>
       <c r="Z16" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39425</v>
+        <v>39695</v>
       </c>
       <c r="AA16" s="10" t="s">
         <v>187</v>
@@ -6286,7 +6317,7 @@
       </c>
       <c r="BX16" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>31.221917808219178</v>
+        <v>31.224657534246575</v>
       </c>
     </row>
     <row r="17" spans="2:76" x14ac:dyDescent="0.25">
@@ -6382,7 +6413,7 @@
       </c>
       <c r="Z17" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>36551</v>
+        <v>36361</v>
       </c>
       <c r="AA17" s="10" t="s">
         <v>188</v>
@@ -6540,7 +6571,7 @@
       </c>
       <c r="BX17" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>28.663013698630138</v>
+        <v>28.665753424657535</v>
       </c>
     </row>
     <row r="18" spans="2:76" x14ac:dyDescent="0.25">
@@ -6636,7 +6667,7 @@
       </c>
       <c r="Z18" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39743</v>
+        <v>40053</v>
       </c>
       <c r="AA18" s="10" t="s">
         <v>189</v>
@@ -6794,7 +6825,7 @@
       </c>
       <c r="BX18" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>74.731506849315068</v>
+        <v>74.734246575342468</v>
       </c>
     </row>
     <row r="19" spans="2:76" x14ac:dyDescent="0.25">
@@ -6890,7 +6921,7 @@
       </c>
       <c r="Z19" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39502</v>
+        <v>39422</v>
       </c>
       <c r="AA19" s="10" t="s">
         <v>190</v>
@@ -7048,7 +7079,7 @@
       </c>
       <c r="BX19" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>89.186301369863017</v>
+        <v>89.189041095890417</v>
       </c>
     </row>
     <row r="20" spans="2:76" x14ac:dyDescent="0.25">
@@ -7144,7 +7175,7 @@
       </c>
       <c r="Z20" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39741</v>
+        <v>39631</v>
       </c>
       <c r="AA20" s="10" t="s">
         <v>187</v>
@@ -7302,7 +7333,7 @@
       </c>
       <c r="BX20" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>60.468493150684928</v>
+        <v>60.471232876712328</v>
       </c>
     </row>
     <row r="21" spans="2:76" x14ac:dyDescent="0.25">
@@ -7398,7 +7429,7 @@
       </c>
       <c r="Z21" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39733</v>
+        <v>40133</v>
       </c>
       <c r="AA21" s="10" t="s">
         <v>188</v>
@@ -7556,7 +7587,7 @@
       </c>
       <c r="BX21" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>34.076712328767123</v>
+        <v>34.079452054794523</v>
       </c>
     </row>
     <row r="22" spans="2:76" x14ac:dyDescent="0.25">
@@ -7652,7 +7683,7 @@
       </c>
       <c r="Z22" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39695</v>
+        <v>39685</v>
       </c>
       <c r="AA22" s="10" t="s">
         <v>189</v>
@@ -7810,7 +7841,7 @@
       </c>
       <c r="BX22" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>23.378082191780823</v>
+        <v>23.38082191780822</v>
       </c>
     </row>
     <row r="23" spans="2:76" x14ac:dyDescent="0.25">
@@ -7906,7 +7937,7 @@
       </c>
       <c r="Z23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39545</v>
+        <v>39305</v>
       </c>
       <c r="AA23" s="10" t="s">
         <v>190</v>
@@ -8064,7 +8095,7 @@
       </c>
       <c r="BX23" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>21.241095890410961</v>
+        <v>21.243835616438357</v>
       </c>
     </row>
     <row r="24" spans="2:76" x14ac:dyDescent="0.25">
@@ -8160,7 +8191,7 @@
       </c>
       <c r="Z24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39075</v>
+        <v>39335</v>
       </c>
       <c r="AA24" s="10" t="s">
         <v>184</v>
@@ -8318,7 +8349,7 @@
       </c>
       <c r="BX24" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>38.372602739726027</v>
+        <v>38.375342465753427</v>
       </c>
     </row>
     <row r="25" spans="2:76" x14ac:dyDescent="0.25">
@@ -8414,7 +8445,7 @@
       </c>
       <c r="Z25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39538</v>
+        <v>39648</v>
       </c>
       <c r="AA25" s="10" t="s">
         <v>185</v>
@@ -8572,7 +8603,7 @@
       </c>
       <c r="BX25" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>57.953424657534249</v>
+        <v>57.956164383561642</v>
       </c>
     </row>
     <row r="26" spans="2:76" x14ac:dyDescent="0.25">
@@ -8667,7 +8698,7 @@
       </c>
       <c r="Z26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42138</v>
+        <v>42028</v>
       </c>
       <c r="AA26" s="10" t="s">
         <v>184</v>
@@ -8825,7 +8856,7 @@
       </c>
       <c r="BX26" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>56.194520547945203</v>
+        <v>56.197260273972603</v>
       </c>
     </row>
     <row r="27" spans="2:76" x14ac:dyDescent="0.25">
@@ -8921,7 +8952,7 @@
       </c>
       <c r="Z27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38744</v>
+        <v>38844</v>
       </c>
       <c r="AA27" s="10" t="s">
         <v>185</v>
@@ -9079,7 +9110,7 @@
       </c>
       <c r="BX27" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>52.2</v>
+        <v>52.202739726027396</v>
       </c>
     </row>
     <row r="28" spans="2:76" x14ac:dyDescent="0.25">
@@ -9175,7 +9206,7 @@
       </c>
       <c r="Z28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42166</v>
+        <v>42456</v>
       </c>
       <c r="AA28" s="10" t="s">
         <v>186</v>
@@ -9333,7 +9364,7 @@
       </c>
       <c r="BX28" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>61.167123287671231</v>
+        <v>61.169863013698631</v>
       </c>
     </row>
     <row r="29" spans="2:76" x14ac:dyDescent="0.25">
@@ -9429,7 +9460,7 @@
       </c>
       <c r="Z29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42025</v>
+        <v>42145</v>
       </c>
       <c r="AA29" s="10" t="s">
         <v>187</v>
@@ -9587,7 +9618,7 @@
       </c>
       <c r="BX29" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>24.509589041095889</v>
+        <v>24.512328767123286</v>
       </c>
     </row>
     <row r="30" spans="2:76" x14ac:dyDescent="0.25">
@@ -9683,7 +9714,7 @@
       </c>
       <c r="Z30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41794</v>
+        <v>41774</v>
       </c>
       <c r="AA30" s="10" t="s">
         <v>188</v>
@@ -9841,7 +9872,7 @@
       </c>
       <c r="BX30" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>32.167123287671231</v>
+        <v>32.169863013698631</v>
       </c>
     </row>
     <row r="31" spans="2:76" x14ac:dyDescent="0.25">
@@ -9937,7 +9968,7 @@
       </c>
       <c r="Z31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42366</v>
+        <v>42236</v>
       </c>
       <c r="AA31" s="10" t="s">
         <v>189</v>
@@ -10095,7 +10126,7 @@
       </c>
       <c r="BX31" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>34.6</v>
+        <v>34.602739726027394</v>
       </c>
     </row>
     <row r="32" spans="2:76" x14ac:dyDescent="0.25">
@@ -10191,7 +10222,7 @@
       </c>
       <c r="Z32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41728</v>
+        <v>41698</v>
       </c>
       <c r="AA32" s="10" t="s">
         <v>190</v>
@@ -10349,7 +10380,7 @@
       </c>
       <c r="BX32" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>64.254794520547946</v>
+        <v>64.257534246575347</v>
       </c>
     </row>
     <row r="33" spans="2:76" x14ac:dyDescent="0.25">
@@ -10445,7 +10476,7 @@
       </c>
       <c r="Z33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42088</v>
+        <v>42018</v>
       </c>
       <c r="AA33" s="10" t="s">
         <v>187</v>
@@ -10603,7 +10634,7 @@
       </c>
       <c r="BX33" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>46.041095890410958</v>
+        <v>46.043835616438358</v>
       </c>
     </row>
     <row r="34" spans="2:76" x14ac:dyDescent="0.25">
@@ -10699,7 +10730,7 @@
       </c>
       <c r="Z34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41408</v>
+        <v>41598</v>
       </c>
       <c r="AA34" s="10" t="s">
         <v>188</v>
@@ -10857,7 +10888,7 @@
       </c>
       <c r="BX34" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>23.991780821917807</v>
+        <v>23.994520547945207</v>
       </c>
     </row>
     <row r="35" spans="2:76" x14ac:dyDescent="0.25">
@@ -10953,7 +10984,7 @@
       </c>
       <c r="Z35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42201</v>
+        <v>41961</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>189</v>
@@ -11111,7 +11142,7 @@
       </c>
       <c r="BX35" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>41.356164383561641</v>
+        <v>41.358904109589041</v>
       </c>
     </row>
     <row r="36" spans="2:76" x14ac:dyDescent="0.25">
@@ -11206,7 +11237,7 @@
       </c>
       <c r="Z36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42056</v>
+        <v>41876</v>
       </c>
       <c r="AA36" s="10" t="s">
         <v>190</v>
@@ -11364,7 +11395,7 @@
       </c>
       <c r="BX36" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>13.084931506849315</v>
+        <v>13.087671232876712</v>
       </c>
     </row>
     <row r="37" spans="2:76" x14ac:dyDescent="0.25">
@@ -11460,7 +11491,7 @@
       </c>
       <c r="Z37" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38792</v>
+        <v>39032</v>
       </c>
       <c r="AA37" s="10" t="s">
         <v>184</v>
@@ -11618,7 +11649,7 @@
       </c>
       <c r="BX37" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>17.402739726027399</v>
+        <v>17.405479452054795</v>
       </c>
     </row>
     <row r="38" spans="2:76" x14ac:dyDescent="0.25">
@@ -11714,7 +11745,7 @@
       </c>
       <c r="Z38" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42094</v>
+        <v>42034</v>
       </c>
       <c r="AA38" s="10" t="s">
         <v>185</v>
@@ -11872,7 +11903,7 @@
       </c>
       <c r="BX38" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>98.293150684931504</v>
+        <v>98.295890410958904</v>
       </c>
     </row>
     <row r="39" spans="2:76" x14ac:dyDescent="0.25">
@@ -11968,7 +11999,7 @@
       </c>
       <c r="Z39" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41893</v>
+        <v>41863</v>
       </c>
       <c r="AA39" s="10" t="s">
         <v>189</v>
@@ -12126,7 +12157,7 @@
       </c>
       <c r="BX39" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>54.276712328767125</v>
+        <v>54.279452054794518</v>
       </c>
     </row>
     <row r="40" spans="2:76" x14ac:dyDescent="0.25">
@@ -12222,7 +12253,7 @@
       </c>
       <c r="Z40" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42002</v>
+        <v>41732</v>
       </c>
       <c r="AA40" s="10" t="s">
         <v>190</v>
@@ -12380,7 +12411,7 @@
       </c>
       <c r="BX40" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>95.775342465753425</v>
+        <v>95.778082191780825</v>
       </c>
     </row>
     <row r="41" spans="2:76" x14ac:dyDescent="0.25">
@@ -12476,7 +12507,7 @@
       </c>
       <c r="Z41" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42374</v>
+        <v>42474</v>
       </c>
       <c r="AA41" s="10" t="s">
         <v>184</v>
@@ -12634,7 +12665,7 @@
       </c>
       <c r="BX41" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>14.936986301369863</v>
+        <v>14.93972602739726</v>
       </c>
     </row>
     <row r="42" spans="2:76" x14ac:dyDescent="0.25">
@@ -12730,7 +12761,7 @@
       </c>
       <c r="Z42" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41786</v>
+        <v>41926</v>
       </c>
       <c r="AA42" s="10" t="s">
         <v>185</v>
@@ -12888,7 +12919,7 @@
       </c>
       <c r="BX42" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>27.268493150684932</v>
+        <v>27.271232876712329</v>
       </c>
     </row>
     <row r="43" spans="2:76" x14ac:dyDescent="0.25">
@@ -12984,7 +13015,7 @@
       </c>
       <c r="Z43" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41806</v>
+        <v>42076</v>
       </c>
       <c r="AA43" s="10" t="s">
         <v>186</v>
@@ -13142,7 +13173,7 @@
       </c>
       <c r="BX43" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>20.967123287671232</v>
+        <v>20.969863013698632</v>
       </c>
     </row>
     <row r="44" spans="2:76" x14ac:dyDescent="0.25">
@@ -13238,7 +13269,7 @@
       </c>
       <c r="Z44" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41336</v>
+        <v>41566</v>
       </c>
       <c r="AA44" s="10" t="s">
         <v>187</v>
@@ -13396,7 +13427,7 @@
       </c>
       <c r="BX44" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>19.87123287671233</v>
+        <v>19.873972602739727</v>
       </c>
     </row>
     <row r="45" spans="2:76" x14ac:dyDescent="0.25">
@@ -13492,7 +13523,7 @@
       </c>
       <c r="Z45" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41929</v>
+        <v>42049</v>
       </c>
       <c r="AA45" s="10" t="s">
         <v>188</v>
@@ -13650,7 +13681,7 @@
       </c>
       <c r="BX45" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6657534246575345</v>
+        <v>9.668493150684931</v>
       </c>
     </row>
     <row r="46" spans="2:76" x14ac:dyDescent="0.25">
@@ -13745,7 +13776,7 @@
       </c>
       <c r="Z46" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42325</v>
       </c>
       <c r="AA46" s="10" t="s">
         <v>189</v>
@@ -13903,7 +13934,7 @@
       </c>
       <c r="BX46" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>28.638356164383563</v>
+        <v>28.641095890410959</v>
       </c>
     </row>
     <row r="47" spans="2:76" x14ac:dyDescent="0.25">
@@ -13999,7 +14030,7 @@
       </c>
       <c r="Z47" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39261</v>
+        <v>39651</v>
       </c>
       <c r="AA47" s="10" t="s">
         <v>190</v>
@@ -14157,7 +14188,7 @@
       </c>
       <c r="BX47" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>84.528767123287665</v>
+        <v>84.531506849315065</v>
       </c>
     </row>
     <row r="48" spans="2:76" x14ac:dyDescent="0.25">
@@ -14253,7 +14284,7 @@
       </c>
       <c r="Z48" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42633</v>
+        <v>42893</v>
       </c>
       <c r="AA48" s="10" t="s">
         <v>187</v>
@@ -14411,7 +14442,7 @@
       </c>
       <c r="BX48" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>12.202739726027398</v>
+        <v>12.205479452054794</v>
       </c>
     </row>
     <row r="49" spans="2:76" x14ac:dyDescent="0.25">
@@ -14507,7 +14538,7 @@
       </c>
       <c r="Z49" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42712</v>
       </c>
       <c r="AA49" s="10" t="s">
         <v>188</v>
@@ -14665,7 +14696,7 @@
       </c>
       <c r="BX49" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>4.13972602739726</v>
+        <v>4.1424657534246574</v>
       </c>
     </row>
     <row r="50" spans="2:76" x14ac:dyDescent="0.25">
@@ -14761,7 +14792,7 @@
       </c>
       <c r="Z50" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42201</v>
+        <v>42351</v>
       </c>
       <c r="AA50" s="10" t="s">
         <v>184</v>
@@ -14919,7 +14950,7 @@
       </c>
       <c r="BX50" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>20.583561643835615</v>
+        <v>20.586301369863012</v>
       </c>
     </row>
     <row r="51" spans="2:76" x14ac:dyDescent="0.25">
@@ -15015,7 +15046,7 @@
       </c>
       <c r="Z51" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42653</v>
+        <v>42783</v>
       </c>
       <c r="AA51" s="10" t="s">
         <v>185</v>
@@ -15173,7 +15204,7 @@
       </c>
       <c r="BX51" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>9.24931506849315</v>
+        <v>9.2520547945205482</v>
       </c>
     </row>
     <row r="52" spans="2:76" x14ac:dyDescent="0.25">
@@ -15269,7 +15300,7 @@
       </c>
       <c r="Z52" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42155</v>
+        <v>42445</v>
       </c>
       <c r="AA52" s="10" t="s">
         <v>186</v>
@@ -15427,7 +15458,7 @@
       </c>
       <c r="BX52" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>12.556164383561644</v>
+        <v>12.558904109589042</v>
       </c>
     </row>
     <row r="53" spans="2:76" x14ac:dyDescent="0.25">
@@ -15523,7 +15554,7 @@
       </c>
       <c r="Z53" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42485</v>
+        <v>42535</v>
       </c>
       <c r="AA53" s="10" t="s">
         <v>187</v>
@@ -15681,7 +15712,7 @@
       </c>
       <c r="BX53" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>14.808219178082192</v>
+        <v>14.810958904109588</v>
       </c>
     </row>
     <row r="54" spans="2:76" x14ac:dyDescent="0.25">
@@ -15777,7 +15808,7 @@
       </c>
       <c r="Z54" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41815</v>
+        <v>42015</v>
       </c>
       <c r="AA54" s="10" t="s">
         <v>188</v>
@@ -15935,7 +15966,7 @@
       </c>
       <c r="BX54" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>50.515068493150686</v>
+        <v>50.517808219178079</v>
       </c>
     </row>
     <row r="55" spans="2:76" x14ac:dyDescent="0.25">
@@ -16031,7 +16062,7 @@
       </c>
       <c r="Z55" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42608</v>
+        <v>42318</v>
       </c>
       <c r="AA55" s="10" t="s">
         <v>189</v>
@@ -16189,7 +16220,7 @@
       </c>
       <c r="BX55" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>22.591780821917808</v>
+        <v>22.594520547945205</v>
       </c>
     </row>
     <row r="56" spans="2:76" x14ac:dyDescent="0.25">
@@ -16284,7 +16315,7 @@
       </c>
       <c r="Z56" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43151</v>
+        <v>43081</v>
       </c>
       <c r="AA56" s="10" t="s">
         <v>190</v>
@@ -16442,7 +16473,7 @@
       </c>
       <c r="BX56" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>61.542465753424658</v>
+        <v>61.545205479452058</v>
       </c>
     </row>
     <row r="57" spans="2:76" x14ac:dyDescent="0.25">
@@ -16538,7 +16569,7 @@
       </c>
       <c r="Z57" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>40267</v>
+        <v>40347</v>
       </c>
       <c r="AA57" s="10" t="s">
         <v>184</v>
@@ -16696,7 +16727,7 @@
       </c>
       <c r="BX57" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>53.076712328767123</v>
+        <v>53.079452054794523</v>
       </c>
     </row>
     <row r="58" spans="2:76" x14ac:dyDescent="0.25">
@@ -16792,7 +16823,7 @@
       </c>
       <c r="Z58" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43459</v>
+        <v>43599</v>
       </c>
       <c r="AA58" s="10" t="s">
         <v>185</v>
@@ -16950,7 +16981,7 @@
       </c>
       <c r="BX58" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>18.775342465753425</v>
+        <v>18.778082191780822</v>
       </c>
     </row>
     <row r="59" spans="2:76" x14ac:dyDescent="0.25">
@@ -17204,7 +17235,7 @@
       </c>
       <c r="BX59" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>16.07123287671233</v>
+        <v>16.073972602739726</v>
       </c>
     </row>
     <row r="60" spans="2:76" x14ac:dyDescent="0.25">
@@ -17300,7 +17331,7 @@
       </c>
       <c r="Z60" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43347</v>
+        <v>43017</v>
       </c>
       <c r="AA60" s="10" t="s">
         <v>187</v>
@@ -17458,7 +17489,7 @@
       </c>
       <c r="BX60" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>36.912328767123284</v>
+        <v>36.915068493150685</v>
       </c>
     </row>
     <row r="61" spans="2:76" x14ac:dyDescent="0.25">
@@ -17554,7 +17585,7 @@
       </c>
       <c r="Z61" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43669</v>
+        <v>43719</v>
       </c>
       <c r="AA61" s="10" t="s">
         <v>188</v>
@@ -17712,7 +17743,7 @@
       </c>
       <c r="BX61" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>32.747945205479454</v>
+        <v>32.750684931506846</v>
       </c>
     </row>
     <row r="62" spans="2:76" x14ac:dyDescent="0.25">
@@ -17808,7 +17839,7 @@
       </c>
       <c r="Z62" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42951</v>
+        <v>43111</v>
       </c>
       <c r="AA62" s="10" t="s">
         <v>189</v>
@@ -17966,7 +17997,7 @@
       </c>
       <c r="BX62" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2657534246575342</v>
+        <v>3.2684931506849315</v>
       </c>
     </row>
     <row r="63" spans="2:76" x14ac:dyDescent="0.25">
@@ -18062,7 +18093,7 @@
       </c>
       <c r="Z63" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43091</v>
+        <v>42991</v>
       </c>
       <c r="AA63" s="10" t="s">
         <v>190</v>
@@ -18220,7 +18251,7 @@
       </c>
       <c r="BX63" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>75.123287671232873</v>
+        <v>75.126027397260273</v>
       </c>
     </row>
     <row r="64" spans="2:76" x14ac:dyDescent="0.25">
@@ -18316,7 +18347,7 @@
       </c>
       <c r="Z64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42921</v>
+        <v>42611</v>
       </c>
       <c r="AA64" s="10" t="s">
         <v>187</v>
@@ -18474,7 +18505,7 @@
       </c>
       <c r="BX64" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>35.591780821917808</v>
+        <v>35.594520547945208</v>
       </c>
     </row>
     <row r="65" spans="2:76" x14ac:dyDescent="0.25">
@@ -18570,7 +18601,7 @@
       </c>
       <c r="Z65" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43124</v>
+        <v>43264</v>
       </c>
       <c r="AA65" s="10" t="s">
         <v>188</v>
@@ -18728,7 +18759,7 @@
       </c>
       <c r="BX65" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>64.802739726027397</v>
+        <v>64.805479452054797</v>
       </c>
     </row>
     <row r="66" spans="2:76" x14ac:dyDescent="0.25">
@@ -18823,7 +18854,7 @@
       </c>
       <c r="Z66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41368</v>
+        <v>41458</v>
       </c>
       <c r="AA66" s="10" t="s">
         <v>189</v>
@@ -18981,7 +19012,7 @@
       </c>
       <c r="BX66" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>42.668493150684931</v>
+        <v>42.671232876712331</v>
       </c>
     </row>
     <row r="67" spans="2:76" x14ac:dyDescent="0.25">
@@ -19077,7 +19108,7 @@
       </c>
       <c r="Z67" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38464</v>
+        <v>38204</v>
       </c>
       <c r="AA67" s="10" t="s">
         <v>190</v>
@@ -19235,7 +19266,7 @@
       </c>
       <c r="BX67" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>45.386301369863013</v>
+        <v>45.389041095890413</v>
       </c>
     </row>
     <row r="68" spans="2:76" x14ac:dyDescent="0.25">
@@ -19331,7 +19362,7 @@
       </c>
       <c r="Z68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41586</v>
+        <v>41656</v>
       </c>
       <c r="AA68" s="10" t="s">
         <v>184</v>
@@ -19489,7 +19520,7 @@
       </c>
       <c r="BX68" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>9.117808219178082</v>
+        <v>9.1205479452054803</v>
       </c>
     </row>
     <row r="69" spans="2:76" x14ac:dyDescent="0.25">
@@ -19585,7 +19616,7 @@
       </c>
       <c r="Z69" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41245</v>
+        <v>41475</v>
       </c>
       <c r="AA69" s="10" t="s">
         <v>185</v>
@@ -19743,7 +19774,7 @@
       </c>
       <c r="BX69" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>53.254794520547946</v>
+        <v>53.257534246575339</v>
       </c>
     </row>
     <row r="70" spans="2:76" x14ac:dyDescent="0.25">
@@ -19839,7 +19870,7 @@
       </c>
       <c r="Z70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41484</v>
+        <v>41414</v>
       </c>
       <c r="AA70" s="10" t="s">
         <v>184</v>
@@ -19997,7 +20028,7 @@
       </c>
       <c r="BX70" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>57.364383561643834</v>
+        <v>57.367123287671234</v>
       </c>
     </row>
     <row r="71" spans="2:76" x14ac:dyDescent="0.25">
@@ -20093,7 +20124,7 @@
       </c>
       <c r="Z71" s="19">
         <f t="shared" ref="Z71:Z76" ca="1" si="12">Y71+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>41786</v>
+        <v>41516</v>
       </c>
       <c r="AA71" s="10" t="s">
         <v>185</v>
@@ -20251,7 +20282,7 @@
       </c>
       <c r="BX71" s="48">
         <f t="shared" ref="BX71:BX76" ca="1" si="18">(TODAY()-BF71)/365</f>
-        <v>49.016438356164386</v>
+        <v>49.019178082191779</v>
       </c>
     </row>
     <row r="72" spans="2:76" x14ac:dyDescent="0.25">
@@ -20347,7 +20378,7 @@
       </c>
       <c r="Z72" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41398</v>
+        <v>41058</v>
       </c>
       <c r="AA72" s="10" t="s">
         <v>186</v>
@@ -20505,7 +20536,7 @@
       </c>
       <c r="BX72" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>51.104109589041094</v>
+        <v>51.106849315068494</v>
       </c>
     </row>
     <row r="73" spans="2:76" x14ac:dyDescent="0.25">
@@ -20601,7 +20632,7 @@
       </c>
       <c r="Z73" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41068</v>
+        <v>41278</v>
       </c>
       <c r="AA73" s="10" t="s">
         <v>187</v>
@@ -20759,7 +20790,7 @@
       </c>
       <c r="BX73" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>31.104109589041094</v>
+        <v>31.106849315068494</v>
       </c>
     </row>
     <row r="74" spans="2:76" x14ac:dyDescent="0.25">
@@ -20855,7 +20886,7 @@
       </c>
       <c r="Z74" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>40718</v>
+        <v>40808</v>
       </c>
       <c r="AA74" s="10" t="s">
         <v>188</v>
@@ -21013,7 +21044,7 @@
       </c>
       <c r="BX74" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>61.789041095890411</v>
+        <v>61.791780821917811</v>
       </c>
     </row>
     <row r="75" spans="2:76" x14ac:dyDescent="0.25">
@@ -21109,7 +21140,7 @@
       </c>
       <c r="Z75" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41561</v>
+        <v>41481</v>
       </c>
       <c r="AA75" s="10" t="s">
         <v>189</v>
@@ -21267,7 +21298,7 @@
       </c>
       <c r="BX75" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>0.69041095890410964</v>
+        <v>0.69315068493150689</v>
       </c>
     </row>
     <row r="76" spans="2:76" x14ac:dyDescent="0.25">
@@ -21362,7 +21393,7 @@
       </c>
       <c r="Z76" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>43789</v>
+        <v>43959</v>
       </c>
       <c r="AA76" s="10" t="s">
         <v>190</v>
@@ -21520,7 +21551,7 @@
       </c>
       <c r="BX76" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>28.364383561643837</v>
+        <v>28.367123287671234</v>
       </c>
     </row>
     <row r="77" spans="2:76" x14ac:dyDescent="0.25">
@@ -21964,10 +21995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CA0707-7E93-4961-920B-88B5948FD65B}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21983,7 +22014,7 @@
     <col min="28" max="28" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>1</v>
       </c>
@@ -22036,7 +22067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -22066,7 +22097,7 @@
       <c r="AA2" s="35"/>
       <c r="AB2" s="36"/>
     </row>
-    <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -22153,8 +22184,20 @@
       <c r="AB3" s="25" t="s">
         <v>100</v>
       </c>
+      <c r="AC3" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD3" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE3" s="63" t="s">
+        <v>600</v>
+      </c>
+      <c r="AF3" s="32" t="s">
+        <v>601</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>182</v>
       </c>
@@ -22239,8 +22282,22 @@
       <c r="AB4" s="26" t="s">
         <v>242</v>
       </c>
+      <c r="AC4" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="AD4" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="AE4" s="39">
+        <f>AC4*$AA4</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AF4" s="39">
+        <f>AD4*$AA4</f>
+        <v>3.5999999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>195</v>
       </c>
@@ -22325,8 +22382,22 @@
       <c r="AB5" s="26" t="s">
         <v>596</v>
       </c>
+      <c r="AC5" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="AD5" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AE5" s="39">
+        <f t="shared" ref="AE5:AE8" si="0">AC5*$AA5</f>
+        <v>0.7</v>
+      </c>
+      <c r="AF5" s="39">
+        <f t="shared" ref="AF5:AF8" si="1">AD5*$AA5</f>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>196</v>
       </c>
@@ -22411,8 +22482,22 @@
       <c r="AB6" s="26" t="s">
         <v>243</v>
       </c>
+      <c r="AC6" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="AD6" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AE6" s="39">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="AF6" s="39">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>197</v>
       </c>
@@ -22495,8 +22580,22 @@
       <c r="AB7" s="26" t="s">
         <v>244</v>
       </c>
+      <c r="AC7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="AD7" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AE7" s="39">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="AF7" s="39">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>198</v>
       </c>
@@ -22577,8 +22676,22 @@
       <c r="AB8" s="26" t="s">
         <v>592</v>
       </c>
+      <c r="AC8" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="AD8" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="AE8" s="39">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AF8" s="39">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>199</v>
       </c>
@@ -22652,7 +22765,7 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="10"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>190</v>
@@ -22724,7 +22837,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="24"/>
@@ -22794,7 +22907,7 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="24"/>
@@ -22864,7 +22977,7 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="24"/>
@@ -22934,7 +23047,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="24"/>
@@ -22996,7 +23109,7 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -23042,7 +23155,7 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>

--- a/Dataset_V0.xlsx
+++ b/Dataset_V0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arun\WIP\Hackathon\2018\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E6B5E-52F7-4FB5-BF05-36F8EDC438CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E522850-5C3C-4768-A3A8-EE23085CBCBD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="8805" activeTab="2" xr2:uid="{009DCA6C-5860-4690-BF15-14568388A6A0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="602">
   <si>
     <t>Entity</t>
   </si>
@@ -2391,6 +2391,12 @@
     <xf numFmtId="15" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2408,12 +2414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2838,92 +2838,92 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="59" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="61" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62"/>
-      <c r="BJ2" s="59" t="s">
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="57" t="s">
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="60"/>
+      <c r="BW2" s="60"/>
     </row>
     <row r="3" spans="1:76" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="Z6" s="19">
         <f ca="1">Y6+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>42750</v>
+        <v>42830</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>184</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="BX6" s="48">
         <f ca="1">(TODAY()-BF6)/365</f>
-        <v>50.257534246575339</v>
+        <v>50.260273972602739</v>
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="Z7" s="19">
         <f t="shared" ref="Z7:Z70" ca="1" si="2">Y7+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>40006</v>
+        <v>39766</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>185</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="BX7" s="48">
         <f t="shared" ref="BX7:BX70" ca="1" si="8">(TODAY()-BF7)/365</f>
-        <v>66.9972602739726</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z8" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>186</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="BX8" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>30.55890410958904</v>
+        <v>30.561643835616437</v>
       </c>
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="Z9" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43047</v>
+        <v>42837</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>187</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="BX9" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>44.101369863013701</v>
+        <v>44.104109589041094</v>
       </c>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.25">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="Z10" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42726</v>
+        <v>42986</v>
       </c>
       <c r="AA10" s="10" t="s">
         <v>188</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="BX10" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>40.147945205479452</v>
+        <v>40.150684931506852</v>
       </c>
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="Z11" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43208</v>
+        <v>43398</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>189</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="BX11" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>56.038356164383565</v>
+        <v>56.041095890410958</v>
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="Z12" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42780</v>
+        <v>42790</v>
       </c>
       <c r="AA12" s="10" t="s">
         <v>190</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="BX12" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>38.230136986301368</v>
+        <v>38.232876712328768</v>
       </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="Z13" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42520</v>
+        <v>42560</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>184</v>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="BX13" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>10.556164383561644</v>
+        <v>10.558904109589042</v>
       </c>
     </row>
     <row r="14" spans="1:76" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="Z14" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42220</v>
+        <v>42380</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>185</v>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="BX14" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>26.687671232876713</v>
+        <v>26.69041095890411</v>
       </c>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.25">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="Z15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42713</v>
+        <v>42793</v>
       </c>
       <c r="AA15" s="10" t="s">
         <v>186</v>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="BX15" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7123287671232876</v>
+        <v>1.715068493150685</v>
       </c>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.25">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="Z16" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39695</v>
+        <v>39435</v>
       </c>
       <c r="AA16" s="10" t="s">
         <v>187</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="BX16" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>31.224657534246575</v>
+        <v>31.227397260273971</v>
       </c>
     </row>
     <row r="17" spans="2:76" x14ac:dyDescent="0.25">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="Z17" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>36361</v>
+        <v>36671</v>
       </c>
       <c r="AA17" s="10" t="s">
         <v>188</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="BX17" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>28.665753424657535</v>
+        <v>28.668493150684931</v>
       </c>
     </row>
     <row r="18" spans="2:76" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="Z18" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>40053</v>
+        <v>39883</v>
       </c>
       <c r="AA18" s="10" t="s">
         <v>189</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="BX18" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>74.734246575342468</v>
+        <v>74.736986301369868</v>
       </c>
     </row>
     <row r="19" spans="2:76" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="Z19" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39422</v>
+        <v>39752</v>
       </c>
       <c r="AA19" s="10" t="s">
         <v>190</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="BX19" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>89.189041095890417</v>
+        <v>89.191780821917803</v>
       </c>
     </row>
     <row r="20" spans="2:76" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="Z20" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39631</v>
+        <v>39421</v>
       </c>
       <c r="AA20" s="10" t="s">
         <v>187</v>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="BX20" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>60.471232876712328</v>
+        <v>60.473972602739728</v>
       </c>
     </row>
     <row r="21" spans="2:76" x14ac:dyDescent="0.25">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="Z21" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>40133</v>
+        <v>39793</v>
       </c>
       <c r="AA21" s="10" t="s">
         <v>188</v>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="BX21" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>34.079452054794523</v>
+        <v>34.082191780821915</v>
       </c>
     </row>
     <row r="22" spans="2:76" x14ac:dyDescent="0.25">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="Z22" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39685</v>
+        <v>39295</v>
       </c>
       <c r="AA22" s="10" t="s">
         <v>189</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="BX22" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>23.38082191780822</v>
+        <v>23.383561643835616</v>
       </c>
     </row>
     <row r="23" spans="2:76" x14ac:dyDescent="0.25">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="Z23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39305</v>
+        <v>39265</v>
       </c>
       <c r="AA23" s="10" t="s">
         <v>190</v>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="BX23" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>21.243835616438357</v>
+        <v>21.246575342465754</v>
       </c>
     </row>
     <row r="24" spans="2:76" x14ac:dyDescent="0.25">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="Z24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39335</v>
+        <v>39345</v>
       </c>
       <c r="AA24" s="10" t="s">
         <v>184</v>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="BX24" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>38.375342465753427</v>
+        <v>38.37808219178082</v>
       </c>
     </row>
     <row r="25" spans="2:76" x14ac:dyDescent="0.25">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="Z25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39648</v>
+        <v>39798</v>
       </c>
       <c r="AA25" s="10" t="s">
         <v>185</v>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="BX25" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>57.956164383561642</v>
+        <v>57.958904109589042</v>
       </c>
     </row>
     <row r="26" spans="2:76" x14ac:dyDescent="0.25">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="Z26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42028</v>
+        <v>41748</v>
       </c>
       <c r="AA26" s="10" t="s">
         <v>184</v>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="BX26" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>56.197260273972603</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="27" spans="2:76" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="Z27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38844</v>
+        <v>39054</v>
       </c>
       <c r="AA27" s="10" t="s">
         <v>185</v>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="BX27" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>52.202739726027396</v>
+        <v>52.205479452054796</v>
       </c>
     </row>
     <row r="28" spans="2:76" x14ac:dyDescent="0.25">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="Z28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42456</v>
+        <v>42086</v>
       </c>
       <c r="AA28" s="10" t="s">
         <v>186</v>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="BX28" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>61.169863013698631</v>
+        <v>61.172602739726024</v>
       </c>
     </row>
     <row r="29" spans="2:76" x14ac:dyDescent="0.25">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="Z29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42145</v>
+        <v>41915</v>
       </c>
       <c r="AA29" s="10" t="s">
         <v>187</v>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="BX29" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>24.512328767123286</v>
+        <v>24.515068493150686</v>
       </c>
     </row>
     <row r="30" spans="2:76" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="Z30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41774</v>
+        <v>42004</v>
       </c>
       <c r="AA30" s="10" t="s">
         <v>188</v>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="BX30" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>32.169863013698631</v>
+        <v>32.172602739726024</v>
       </c>
     </row>
     <row r="31" spans="2:76" x14ac:dyDescent="0.25">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="Z31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42236</v>
+        <v>42386</v>
       </c>
       <c r="AA31" s="10" t="s">
         <v>189</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="BX31" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>34.602739726027394</v>
+        <v>34.605479452054794</v>
       </c>
     </row>
     <row r="32" spans="2:76" x14ac:dyDescent="0.25">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="Z32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41698</v>
+        <v>41768</v>
       </c>
       <c r="AA32" s="10" t="s">
         <v>190</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="BX32" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>64.257534246575347</v>
+        <v>64.260273972602747</v>
       </c>
     </row>
     <row r="33" spans="2:76" x14ac:dyDescent="0.25">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="Z33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42018</v>
+        <v>42008</v>
       </c>
       <c r="AA33" s="10" t="s">
         <v>187</v>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="BX33" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>46.043835616438358</v>
+        <v>46.046575342465751</v>
       </c>
     </row>
     <row r="34" spans="2:76" x14ac:dyDescent="0.25">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="Z34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41598</v>
+        <v>41348</v>
       </c>
       <c r="AA34" s="10" t="s">
         <v>188</v>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="BX34" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>23.994520547945207</v>
+        <v>23.997260273972604</v>
       </c>
     </row>
     <row r="35" spans="2:76" x14ac:dyDescent="0.25">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="Z35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41961</v>
+        <v>42111</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>189</v>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="BX35" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>41.358904109589041</v>
+        <v>41.361643835616441</v>
       </c>
     </row>
     <row r="36" spans="2:76" x14ac:dyDescent="0.25">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="Z36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41876</v>
+        <v>41986</v>
       </c>
       <c r="AA36" s="10" t="s">
         <v>190</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="BX36" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>13.087671232876712</v>
+        <v>13.09041095890411</v>
       </c>
     </row>
     <row r="37" spans="2:76" x14ac:dyDescent="0.25">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="Z37" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39032</v>
+        <v>38872</v>
       </c>
       <c r="AA37" s="10" t="s">
         <v>184</v>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="BX37" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>17.405479452054795</v>
+        <v>17.408219178082192</v>
       </c>
     </row>
     <row r="38" spans="2:76" x14ac:dyDescent="0.25">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="Z38" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42034</v>
+        <v>42294</v>
       </c>
       <c r="AA38" s="10" t="s">
         <v>185</v>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="BX38" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>98.295890410958904</v>
+        <v>98.298630136986304</v>
       </c>
     </row>
     <row r="39" spans="2:76" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="Z39" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41863</v>
+        <v>41973</v>
       </c>
       <c r="AA39" s="10" t="s">
         <v>189</v>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="BX39" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>54.279452054794518</v>
+        <v>54.282191780821918</v>
       </c>
     </row>
     <row r="40" spans="2:76" x14ac:dyDescent="0.25">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="Z40" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41732</v>
+        <v>42102</v>
       </c>
       <c r="AA40" s="10" t="s">
         <v>190</v>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="BX40" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>95.778082191780825</v>
+        <v>95.780821917808225</v>
       </c>
     </row>
     <row r="41" spans="2:76" x14ac:dyDescent="0.25">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="Z41" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42134</v>
       </c>
       <c r="AA41" s="10" t="s">
         <v>184</v>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="BX41" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>14.93972602739726</v>
+        <v>14.942465753424658</v>
       </c>
     </row>
     <row r="42" spans="2:76" x14ac:dyDescent="0.25">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="Z42" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41926</v>
+        <v>42056</v>
       </c>
       <c r="AA42" s="10" t="s">
         <v>185</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="BX42" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>27.271232876712329</v>
+        <v>27.273972602739725</v>
       </c>
     </row>
     <row r="43" spans="2:76" x14ac:dyDescent="0.25">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="Z43" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42076</v>
+        <v>41746</v>
       </c>
       <c r="AA43" s="10" t="s">
         <v>186</v>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="BX43" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>20.969863013698632</v>
+        <v>20.972602739726028</v>
       </c>
     </row>
     <row r="44" spans="2:76" x14ac:dyDescent="0.25">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="Z44" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41566</v>
+        <v>41486</v>
       </c>
       <c r="AA44" s="10" t="s">
         <v>187</v>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="BX44" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>19.873972602739727</v>
+        <v>19.876712328767123</v>
       </c>
     </row>
     <row r="45" spans="2:76" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="Z45" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42049</v>
+        <v>42089</v>
       </c>
       <c r="AA45" s="10" t="s">
         <v>188</v>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="BX45" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>9.668493150684931</v>
+        <v>9.6712328767123292</v>
       </c>
     </row>
     <row r="46" spans="2:76" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="Z46" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42325</v>
+        <v>42255</v>
       </c>
       <c r="AA46" s="10" t="s">
         <v>189</v>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="BX46" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>28.641095890410959</v>
+        <v>28.643835616438356</v>
       </c>
     </row>
     <row r="47" spans="2:76" x14ac:dyDescent="0.25">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="Z47" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39651</v>
+        <v>39461</v>
       </c>
       <c r="AA47" s="10" t="s">
         <v>190</v>
@@ -14188,7 +14188,7 @@
       </c>
       <c r="BX47" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>84.531506849315065</v>
+        <v>84.534246575342465</v>
       </c>
     </row>
     <row r="48" spans="2:76" x14ac:dyDescent="0.25">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="Z48" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42893</v>
+        <v>42673</v>
       </c>
       <c r="AA48" s="10" t="s">
         <v>187</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="BX48" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>12.205479452054794</v>
+        <v>12.208219178082192</v>
       </c>
     </row>
     <row r="49" spans="2:76" x14ac:dyDescent="0.25">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="Z49" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42712</v>
+        <v>42532</v>
       </c>
       <c r="AA49" s="10" t="s">
         <v>188</v>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="BX49" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>4.1424657534246574</v>
+        <v>4.1452054794520548</v>
       </c>
     </row>
     <row r="50" spans="2:76" x14ac:dyDescent="0.25">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="Z50" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42351</v>
+        <v>42331</v>
       </c>
       <c r="AA50" s="10" t="s">
         <v>184</v>
@@ -14950,7 +14950,7 @@
       </c>
       <c r="BX50" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>20.586301369863012</v>
+        <v>20.589041095890412</v>
       </c>
     </row>
     <row r="51" spans="2:76" x14ac:dyDescent="0.25">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="Z51" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42783</v>
+        <v>42833</v>
       </c>
       <c r="AA51" s="10" t="s">
         <v>185</v>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="BX51" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2520547945205482</v>
+        <v>9.2547945205479447</v>
       </c>
     </row>
     <row r="52" spans="2:76" x14ac:dyDescent="0.25">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="Z52" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42445</v>
+        <v>42245</v>
       </c>
       <c r="AA52" s="10" t="s">
         <v>186</v>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="BX52" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>12.558904109589042</v>
+        <v>12.561643835616438</v>
       </c>
     </row>
     <row r="53" spans="2:76" x14ac:dyDescent="0.25">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="Z53" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42535</v>
+        <v>42225</v>
       </c>
       <c r="AA53" s="10" t="s">
         <v>187</v>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="BX53" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>14.810958904109588</v>
+        <v>14.813698630136987</v>
       </c>
     </row>
     <row r="54" spans="2:76" x14ac:dyDescent="0.25">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="Z54" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42015</v>
+        <v>41845</v>
       </c>
       <c r="AA54" s="10" t="s">
         <v>188</v>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="BX54" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>50.517808219178079</v>
+        <v>50.520547945205479</v>
       </c>
     </row>
     <row r="55" spans="2:76" x14ac:dyDescent="0.25">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="Z55" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42318</v>
+        <v>42478</v>
       </c>
       <c r="AA55" s="10" t="s">
         <v>189</v>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="BX55" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>22.594520547945205</v>
+        <v>22.597260273972601</v>
       </c>
     </row>
     <row r="56" spans="2:76" x14ac:dyDescent="0.25">
@@ -16315,7 +16315,7 @@
       </c>
       <c r="Z56" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43081</v>
+        <v>42981</v>
       </c>
       <c r="AA56" s="10" t="s">
         <v>190</v>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="BX56" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>61.545205479452058</v>
+        <v>61.547945205479451</v>
       </c>
     </row>
     <row r="57" spans="2:76" x14ac:dyDescent="0.25">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="Z57" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>40347</v>
+        <v>40117</v>
       </c>
       <c r="AA57" s="10" t="s">
         <v>184</v>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="BX57" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>53.079452054794523</v>
+        <v>53.082191780821915</v>
       </c>
     </row>
     <row r="58" spans="2:76" x14ac:dyDescent="0.25">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="Z58" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43599</v>
+        <v>43669</v>
       </c>
       <c r="AA58" s="10" t="s">
         <v>185</v>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="BX58" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>18.778082191780822</v>
+        <v>18.780821917808218</v>
       </c>
     </row>
     <row r="59" spans="2:76" x14ac:dyDescent="0.25">
@@ -17077,7 +17077,7 @@
       </c>
       <c r="Z59" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43058</v>
+        <v>43438</v>
       </c>
       <c r="AA59" s="10" t="s">
         <v>186</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="BX59" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>16.073972602739726</v>
+        <v>16.076712328767123</v>
       </c>
     </row>
     <row r="60" spans="2:76" x14ac:dyDescent="0.25">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="Z60" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43017</v>
+        <v>42987</v>
       </c>
       <c r="AA60" s="10" t="s">
         <v>187</v>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="BX60" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>36.915068493150685</v>
+        <v>36.917808219178085</v>
       </c>
     </row>
     <row r="61" spans="2:76" x14ac:dyDescent="0.25">
@@ -17585,7 +17585,7 @@
       </c>
       <c r="Z61" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43719</v>
+        <v>43539</v>
       </c>
       <c r="AA61" s="10" t="s">
         <v>188</v>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="BX61" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>32.750684931506846</v>
+        <v>32.753424657534246</v>
       </c>
     </row>
     <row r="62" spans="2:76" x14ac:dyDescent="0.25">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="Z62" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43111</v>
+        <v>42901</v>
       </c>
       <c r="AA62" s="10" t="s">
         <v>189</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BX62" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2684931506849315</v>
+        <v>3.2712328767123289</v>
       </c>
     </row>
     <row r="63" spans="2:76" x14ac:dyDescent="0.25">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="Z63" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42991</v>
+        <v>43201</v>
       </c>
       <c r="AA63" s="10" t="s">
         <v>190</v>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="BX63" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>75.126027397260273</v>
+        <v>75.128767123287673</v>
       </c>
     </row>
     <row r="64" spans="2:76" x14ac:dyDescent="0.25">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="Z64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42611</v>
+        <v>42691</v>
       </c>
       <c r="AA64" s="10" t="s">
         <v>187</v>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="BX64" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>35.594520547945208</v>
+        <v>35.597260273972601</v>
       </c>
     </row>
     <row r="65" spans="2:76" x14ac:dyDescent="0.25">
@@ -18601,7 +18601,7 @@
       </c>
       <c r="Z65" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43264</v>
+        <v>43214</v>
       </c>
       <c r="AA65" s="10" t="s">
         <v>188</v>
@@ -18759,7 +18759,7 @@
       </c>
       <c r="BX65" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>64.805479452054797</v>
+        <v>64.808219178082197</v>
       </c>
     </row>
     <row r="66" spans="2:76" x14ac:dyDescent="0.25">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="Z66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41458</v>
+        <v>41278</v>
       </c>
       <c r="AA66" s="10" t="s">
         <v>189</v>
@@ -19012,7 +19012,7 @@
       </c>
       <c r="BX66" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>42.671232876712331</v>
+        <v>42.673972602739724</v>
       </c>
     </row>
     <row r="67" spans="2:76" x14ac:dyDescent="0.25">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="Z67" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38204</v>
+        <v>38294</v>
       </c>
       <c r="AA67" s="10" t="s">
         <v>190</v>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="BX67" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>45.389041095890413</v>
+        <v>45.391780821917806</v>
       </c>
     </row>
     <row r="68" spans="2:76" x14ac:dyDescent="0.25">
@@ -19362,7 +19362,7 @@
       </c>
       <c r="Z68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41656</v>
+        <v>41826</v>
       </c>
       <c r="AA68" s="10" t="s">
         <v>184</v>
@@ -19520,7 +19520,7 @@
       </c>
       <c r="BX68" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1205479452054803</v>
+        <v>9.1232876712328768</v>
       </c>
     </row>
     <row r="69" spans="2:76" x14ac:dyDescent="0.25">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="Z69" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41475</v>
+        <v>41635</v>
       </c>
       <c r="AA69" s="10" t="s">
         <v>185</v>
@@ -19774,7 +19774,7 @@
       </c>
       <c r="BX69" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>53.257534246575339</v>
+        <v>53.260273972602739</v>
       </c>
     </row>
     <row r="70" spans="2:76" x14ac:dyDescent="0.25">
@@ -19870,7 +19870,7 @@
       </c>
       <c r="Z70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41414</v>
+        <v>41114</v>
       </c>
       <c r="AA70" s="10" t="s">
         <v>184</v>
@@ -20028,7 +20028,7 @@
       </c>
       <c r="BX70" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v>57.367123287671234</v>
+        <v>57.369863013698627</v>
       </c>
     </row>
     <row r="71" spans="2:76" x14ac:dyDescent="0.25">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="Z71" s="19">
         <f t="shared" ref="Z71:Z76" ca="1" si="12">Y71+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>41516</v>
+        <v>41736</v>
       </c>
       <c r="AA71" s="10" t="s">
         <v>185</v>
@@ -20282,7 +20282,7 @@
       </c>
       <c r="BX71" s="48">
         <f t="shared" ref="BX71:BX76" ca="1" si="18">(TODAY()-BF71)/365</f>
-        <v>49.019178082191779</v>
+        <v>49.021917808219179</v>
       </c>
     </row>
     <row r="72" spans="2:76" x14ac:dyDescent="0.25">
@@ -20378,7 +20378,7 @@
       </c>
       <c r="Z72" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41058</v>
+        <v>41368</v>
       </c>
       <c r="AA72" s="10" t="s">
         <v>186</v>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="BX72" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>51.106849315068494</v>
+        <v>51.109589041095887</v>
       </c>
     </row>
     <row r="73" spans="2:76" x14ac:dyDescent="0.25">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="Z73" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41278</v>
+        <v>41338</v>
       </c>
       <c r="AA73" s="10" t="s">
         <v>187</v>
@@ -20790,7 +20790,7 @@
       </c>
       <c r="BX73" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>31.106849315068494</v>
+        <v>31.109589041095891</v>
       </c>
     </row>
     <row r="74" spans="2:76" x14ac:dyDescent="0.25">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="Z74" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>40808</v>
+        <v>40868</v>
       </c>
       <c r="AA74" s="10" t="s">
         <v>188</v>
@@ -21044,7 +21044,7 @@
       </c>
       <c r="BX74" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>61.791780821917811</v>
+        <v>61.794520547945204</v>
       </c>
     </row>
     <row r="75" spans="2:76" x14ac:dyDescent="0.25">
@@ -21140,7 +21140,7 @@
       </c>
       <c r="Z75" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41481</v>
+        <v>41321</v>
       </c>
       <c r="AA75" s="10" t="s">
         <v>189</v>
@@ -21298,7 +21298,7 @@
       </c>
       <c r="BX75" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>0.69315068493150689</v>
+        <v>0.69589041095890414</v>
       </c>
     </row>
     <row r="76" spans="2:76" x14ac:dyDescent="0.25">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="Z76" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>43959</v>
+        <v>43589</v>
       </c>
       <c r="AA76" s="10" t="s">
         <v>190</v>
@@ -21551,7 +21551,7 @@
       </c>
       <c r="BX76" s="48">
         <f t="shared" ca="1" si="18"/>
-        <v>28.367123287671234</v>
+        <v>28.36986301369863</v>
       </c>
     </row>
     <row r="77" spans="2:76" x14ac:dyDescent="0.25">
@@ -21995,10 +21995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CA0707-7E93-4961-920B-88B5948FD65B}">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22187,10 +22187,10 @@
       <c r="AC3" s="47" t="s">
         <v>598</v>
       </c>
-      <c r="AD3" s="64" t="s">
+      <c r="AD3" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="AE3" s="63" t="s">
+      <c r="AE3" s="57" t="s">
         <v>600</v>
       </c>
       <c r="AF3" s="32" t="s">
@@ -23246,6 +23246,183 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="J21" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J22" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="33">
+        <v>1</v>
+      </c>
+      <c r="M22" t="str">
+        <f>""""&amp;J22&amp;""""&amp;":"&amp;K22&amp;","</f>
+        <v>"RAM":1,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J23" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="33">
+        <v>2</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23:M35" si="2">""""&amp;J23&amp;""""&amp;":"&amp;K23&amp;","</f>
+        <v>"TNF":2,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J24" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="33">
+        <v>3</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>"GFT":3,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J25" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" s="33">
+        <v>4</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>"CRF":4,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J26" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="33">
+        <v>5</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>"YHD":5,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J27" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" s="33">
+        <v>6</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>"KSL":6,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J28" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="33">
+        <v>7</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>"MYP":7,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J29" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="33">
+        <v>8</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>"ZPD":8,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J30" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="33">
+        <v>9</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>"BCR":9,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J31" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="33">
+        <v>10</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>"ISC":10,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J32" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="33">
+        <v>11</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>"MSP":11,</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" s="33">
+        <v>12</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>"TSD":12,</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="33">
+        <v>13</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>"AKB":13,</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="34">
+        <v>14</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>"RJD":14,</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset_V0.xlsx
+++ b/Dataset_V0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arun\WIP\Hackathon\2018\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E522850-5C3C-4768-A3A8-EE23085CBCBD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5A812B-8290-45F3-8A35-BDFCCBFDBBF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="8805" activeTab="2" xr2:uid="{009DCA6C-5860-4690-BF15-14568388A6A0}"/>
   </bookViews>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="Z6" s="19">
         <f ca="1">Y6+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>42830</v>
+        <v>42800</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>184</v>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="Z7" s="19">
         <f t="shared" ref="Z7:Z70" ca="1" si="2">Y7+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>39766</v>
+        <v>39666</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>185</v>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z8" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42978</v>
+        <v>43128</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>186</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="Z9" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42837</v>
+        <v>42897</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>187</v>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="Z10" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42986</v>
+        <v>42686</v>
       </c>
       <c r="AA10" s="10" t="s">
         <v>188</v>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="Z11" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43398</v>
+        <v>43258</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>189</v>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="Z12" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42790</v>
+        <v>42620</v>
       </c>
       <c r="AA12" s="10" t="s">
         <v>190</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="Z13" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42560</v>
+        <v>42590</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>184</v>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="Z14" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42380</v>
+        <v>42630</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>185</v>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="Z15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42793</v>
+        <v>42843</v>
       </c>
       <c r="AA15" s="10" t="s">
         <v>186</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="Z16" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39435</v>
+        <v>39755</v>
       </c>
       <c r="AA16" s="10" t="s">
         <v>187</v>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="Z17" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>36671</v>
+        <v>36541</v>
       </c>
       <c r="AA17" s="10" t="s">
         <v>188</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="Z18" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39883</v>
+        <v>39903</v>
       </c>
       <c r="AA18" s="10" t="s">
         <v>189</v>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="Z19" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39752</v>
+        <v>39732</v>
       </c>
       <c r="AA19" s="10" t="s">
         <v>190</v>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="Z20" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39421</v>
+        <v>39611</v>
       </c>
       <c r="AA20" s="10" t="s">
         <v>187</v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="Z21" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39793</v>
+        <v>39943</v>
       </c>
       <c r="AA21" s="10" t="s">
         <v>188</v>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="Z22" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39295</v>
+        <v>39595</v>
       </c>
       <c r="AA22" s="10" t="s">
         <v>189</v>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="Z23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39265</v>
+        <v>39365</v>
       </c>
       <c r="AA23" s="10" t="s">
         <v>190</v>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="Z24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39345</v>
+        <v>39165</v>
       </c>
       <c r="AA24" s="10" t="s">
         <v>184</v>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="Z25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39798</v>
+        <v>39598</v>
       </c>
       <c r="AA25" s="10" t="s">
         <v>185</v>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="Z26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41748</v>
+        <v>41918</v>
       </c>
       <c r="AA26" s="10" t="s">
         <v>184</v>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="Z27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39054</v>
+        <v>39104</v>
       </c>
       <c r="AA27" s="10" t="s">
         <v>185</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="Z28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42086</v>
+        <v>42186</v>
       </c>
       <c r="AA28" s="10" t="s">
         <v>186</v>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="Z29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41915</v>
+        <v>42225</v>
       </c>
       <c r="AA29" s="10" t="s">
         <v>187</v>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="Z30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42004</v>
+        <v>41974</v>
       </c>
       <c r="AA30" s="10" t="s">
         <v>188</v>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="Z31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42386</v>
+        <v>42416</v>
       </c>
       <c r="AA31" s="10" t="s">
         <v>189</v>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="Z32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41768</v>
+        <v>41688</v>
       </c>
       <c r="AA32" s="10" t="s">
         <v>190</v>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="Z33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42008</v>
+        <v>41938</v>
       </c>
       <c r="AA33" s="10" t="s">
         <v>187</v>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="Z34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41348</v>
+        <v>41458</v>
       </c>
       <c r="AA34" s="10" t="s">
         <v>188</v>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="Z35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42111</v>
+        <v>41951</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>189</v>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="Z36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41986</v>
+        <v>41786</v>
       </c>
       <c r="AA36" s="10" t="s">
         <v>190</v>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="Z37" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38872</v>
+        <v>38882</v>
       </c>
       <c r="AA37" s="10" t="s">
         <v>184</v>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="Z38" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42294</v>
+        <v>41984</v>
       </c>
       <c r="AA38" s="10" t="s">
         <v>185</v>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="Z39" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41973</v>
+        <v>42103</v>
       </c>
       <c r="AA39" s="10" t="s">
         <v>189</v>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="Z40" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42102</v>
+        <v>42112</v>
       </c>
       <c r="AA40" s="10" t="s">
         <v>190</v>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="Z41" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42134</v>
+        <v>42334</v>
       </c>
       <c r="AA41" s="10" t="s">
         <v>184</v>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="Z42" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42056</v>
+        <v>41696</v>
       </c>
       <c r="AA42" s="10" t="s">
         <v>185</v>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="Z43" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41746</v>
+        <v>42056</v>
       </c>
       <c r="AA43" s="10" t="s">
         <v>186</v>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="Z44" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41486</v>
+        <v>41426</v>
       </c>
       <c r="AA44" s="10" t="s">
         <v>187</v>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="Z45" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42089</v>
+        <v>42059</v>
       </c>
       <c r="AA45" s="10" t="s">
         <v>188</v>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="Z46" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42255</v>
+        <v>42365</v>
       </c>
       <c r="AA46" s="10" t="s">
         <v>189</v>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="Z47" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>39461</v>
+        <v>39621</v>
       </c>
       <c r="AA47" s="10" t="s">
         <v>190</v>
@@ -14284,7 +14284,7 @@
       </c>
       <c r="Z48" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42673</v>
+        <v>42653</v>
       </c>
       <c r="AA48" s="10" t="s">
         <v>187</v>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="Z49" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42532</v>
+        <v>42372</v>
       </c>
       <c r="AA49" s="10" t="s">
         <v>188</v>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="Z50" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42331</v>
+        <v>42181</v>
       </c>
       <c r="AA50" s="10" t="s">
         <v>184</v>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="Z51" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42833</v>
+        <v>42603</v>
       </c>
       <c r="AA51" s="10" t="s">
         <v>185</v>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="Z52" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42245</v>
+        <v>42205</v>
       </c>
       <c r="AA52" s="10" t="s">
         <v>186</v>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="Z53" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42225</v>
+        <v>42305</v>
       </c>
       <c r="AA53" s="10" t="s">
         <v>187</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="Z54" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41845</v>
+        <v>41825</v>
       </c>
       <c r="AA54" s="10" t="s">
         <v>188</v>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="Z55" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42478</v>
+        <v>42418</v>
       </c>
       <c r="AA55" s="10" t="s">
         <v>189</v>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="Z56" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42981</v>
+        <v>43431</v>
       </c>
       <c r="AA56" s="10" t="s">
         <v>190</v>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="Z57" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>40117</v>
+        <v>40027</v>
       </c>
       <c r="AA57" s="10" t="s">
         <v>184</v>
@@ -16823,7 +16823,7 @@
       </c>
       <c r="Z58" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43669</v>
+        <v>43279</v>
       </c>
       <c r="AA58" s="10" t="s">
         <v>185</v>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="Z59" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43438</v>
+        <v>43188</v>
       </c>
       <c r="AA59" s="10" t="s">
         <v>186</v>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="Z60" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42987</v>
+        <v>43367</v>
       </c>
       <c r="AA60" s="10" t="s">
         <v>187</v>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="Z61" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43539</v>
+        <v>43789</v>
       </c>
       <c r="AA61" s="10" t="s">
         <v>188</v>
@@ -17839,7 +17839,7 @@
       </c>
       <c r="Z62" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42901</v>
+        <v>43151</v>
       </c>
       <c r="AA62" s="10" t="s">
         <v>189</v>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="Z63" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43201</v>
+        <v>43291</v>
       </c>
       <c r="AA63" s="10" t="s">
         <v>190</v>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="Z64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>42691</v>
+        <v>42731</v>
       </c>
       <c r="AA64" s="10" t="s">
         <v>187</v>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="Z65" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>43214</v>
+        <v>43194</v>
       </c>
       <c r="AA65" s="10" t="s">
         <v>188</v>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="Z66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41278</v>
+        <v>41478</v>
       </c>
       <c r="AA66" s="10" t="s">
         <v>189</v>
@@ -19108,7 +19108,7 @@
       </c>
       <c r="Z67" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>38294</v>
+        <v>38304</v>
       </c>
       <c r="AA67" s="10" t="s">
         <v>190</v>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="Z68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41826</v>
+        <v>41486</v>
       </c>
       <c r="AA68" s="10" t="s">
         <v>184</v>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="Z69" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41635</v>
+        <v>41285</v>
       </c>
       <c r="AA69" s="10" t="s">
         <v>185</v>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="Z70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>41114</v>
+        <v>41324</v>
       </c>
       <c r="AA70" s="10" t="s">
         <v>184</v>
@@ -20124,7 +20124,7 @@
       </c>
       <c r="Z71" s="19">
         <f t="shared" ref="Z71:Z76" ca="1" si="12">Y71+INT(RANDBETWEEN(45,90)*10)</f>
-        <v>41736</v>
+        <v>41676</v>
       </c>
       <c r="AA71" s="10" t="s">
         <v>185</v>
@@ -20378,7 +20378,7 @@
       </c>
       <c r="Z72" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41368</v>
+        <v>41358</v>
       </c>
       <c r="AA72" s="10" t="s">
         <v>186</v>
@@ -20632,7 +20632,7 @@
       </c>
       <c r="Z73" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41338</v>
+        <v>41098</v>
       </c>
       <c r="AA73" s="10" t="s">
         <v>187</v>
@@ -20886,7 +20886,7 @@
       </c>
       <c r="Z74" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>40868</v>
+        <v>41168</v>
       </c>
       <c r="AA74" s="10" t="s">
         <v>188</v>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="Z75" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>41321</v>
+        <v>41181</v>
       </c>
       <c r="AA75" s="10" t="s">
         <v>189</v>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="Z76" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>43589</v>
+        <v>43949</v>
       </c>
       <c r="AA76" s="10" t="s">
         <v>190</v>
